--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -37,145 +37,157 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1749955611-9</t>
-  </si>
-  <si>
-    <t>1749955611-10</t>
-  </si>
-  <si>
-    <t>1749955611-11</t>
-  </si>
-  <si>
-    <t>1749955611-12</t>
-  </si>
-  <si>
-    <t>1749955611-13</t>
-  </si>
-  <si>
-    <t>1749955611-14</t>
-  </si>
-  <si>
-    <t>1749955611-15</t>
-  </si>
-  <si>
-    <t>1749955611-16</t>
-  </si>
-  <si>
-    <t>1749955611-17</t>
-  </si>
-  <si>
-    <t>1749955611-18</t>
-  </si>
-  <si>
-    <t>1749955611-19</t>
-  </si>
-  <si>
-    <t>1749955611-20</t>
-  </si>
-  <si>
-    <t>1749955611-21</t>
-  </si>
-  <si>
-    <t>1749955611-22</t>
-  </si>
-  <si>
-    <t>1749955611-23</t>
-  </si>
-  <si>
-    <t>1749955611-24</t>
-  </si>
-  <si>
-    <t>1749955611-25</t>
-  </si>
-  <si>
-    <t>1749955611-26</t>
-  </si>
-  <si>
-    <t>1749955611-27</t>
-  </si>
-  <si>
-    <t>1749955611-28</t>
-  </si>
-  <si>
-    <t>1749955611-29</t>
-  </si>
-  <si>
-    <t>1749955611-30</t>
-  </si>
-  <si>
-    <t>1749955611-31</t>
-  </si>
-  <si>
-    <t>1749955611-32</t>
-  </si>
-  <si>
-    <t>1749955611-33</t>
-  </si>
-  <si>
-    <t>1749955611-34</t>
-  </si>
-  <si>
-    <t>1749955611-35</t>
-  </si>
-  <si>
-    <t>1749955611-36</t>
-  </si>
-  <si>
-    <t>1749955611-37</t>
-  </si>
-  <si>
-    <t>1749955611-38</t>
-  </si>
-  <si>
-    <t>1749955611-39</t>
-  </si>
-  <si>
-    <t>1749955611-40</t>
-  </si>
-  <si>
-    <t>1749955611-41</t>
-  </si>
-  <si>
-    <t>1749955611-42</t>
-  </si>
-  <si>
-    <t>1749955611-43</t>
-  </si>
-  <si>
-    <t>1749955611-44</t>
-  </si>
-  <si>
-    <t>1749955611-45</t>
-  </si>
-  <si>
-    <t>1749955611-46</t>
-  </si>
-  <si>
-    <t>1749955611-47</t>
-  </si>
-  <si>
-    <t>1749955611-48</t>
-  </si>
-  <si>
-    <t>1749955611-49</t>
-  </si>
-  <si>
-    <t>1749955611-50</t>
-  </si>
-  <si>
-    <t>1749955611-51</t>
-  </si>
-  <si>
-    <t>1749955611-52</t>
-  </si>
-  <si>
-    <t>1749955611-53</t>
-  </si>
-  <si>
-    <t>1749955611-54</t>
+    <t>1750503018-9</t>
+  </si>
+  <si>
+    <t>1750503018-10</t>
+  </si>
+  <si>
+    <t>1750503018-11</t>
+  </si>
+  <si>
+    <t>1750503018-12</t>
+  </si>
+  <si>
+    <t>1750503018-13</t>
+  </si>
+  <si>
+    <t>1750503018-14</t>
+  </si>
+  <si>
+    <t>1750503018-15</t>
+  </si>
+  <si>
+    <t>1750503018-16</t>
+  </si>
+  <si>
+    <t>1750503018-17</t>
+  </si>
+  <si>
+    <t>1750503018-18</t>
+  </si>
+  <si>
+    <t>1750503018-19</t>
+  </si>
+  <si>
+    <t>1750503018-20</t>
+  </si>
+  <si>
+    <t>1750503018-21</t>
+  </si>
+  <si>
+    <t>1750503018-22</t>
+  </si>
+  <si>
+    <t>1750503018-23</t>
+  </si>
+  <si>
+    <t>1750503018-24</t>
+  </si>
+  <si>
+    <t>1750503018-25</t>
+  </si>
+  <si>
+    <t>1750503018-26</t>
+  </si>
+  <si>
+    <t>1750503018-27</t>
+  </si>
+  <si>
+    <t>1750503018-28</t>
+  </si>
+  <si>
+    <t>1750503018-29</t>
+  </si>
+  <si>
+    <t>1750503018-30</t>
+  </si>
+  <si>
+    <t>1750503018-31</t>
+  </si>
+  <si>
+    <t>1750503018-32</t>
+  </si>
+  <si>
+    <t>1750503018-33</t>
+  </si>
+  <si>
+    <t>1750503018-34</t>
+  </si>
+  <si>
+    <t>1750503018-35</t>
+  </si>
+  <si>
+    <t>1750503018-36</t>
+  </si>
+  <si>
+    <t>1750503018-37</t>
+  </si>
+  <si>
+    <t>1750503018-38</t>
+  </si>
+  <si>
+    <t>1750503018-39</t>
+  </si>
+  <si>
+    <t>1750503018-40</t>
+  </si>
+  <si>
+    <t>1750503018-41</t>
+  </si>
+  <si>
+    <t>1750503018-42</t>
+  </si>
+  <si>
+    <t>1750503018-43</t>
+  </si>
+  <si>
+    <t>1750503018-44</t>
+  </si>
+  <si>
+    <t>1750503018-45</t>
+  </si>
+  <si>
+    <t>1750503018-46</t>
+  </si>
+  <si>
+    <t>1750503018-47</t>
+  </si>
+  <si>
+    <t>1750503018-48</t>
+  </si>
+  <si>
+    <t>1750503018-49</t>
+  </si>
+  <si>
+    <t>1750503018-50</t>
+  </si>
+  <si>
+    <t>1750503018-51</t>
+  </si>
+  <si>
+    <t>1750503018-52</t>
+  </si>
+  <si>
+    <t>1750503018-53</t>
+  </si>
+  <si>
+    <t>1750503018-54</t>
+  </si>
+  <si>
+    <t>1750503018-55</t>
+  </si>
+  <si>
+    <t>1750503018-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
+  </si>
+  <si>
+    <t>Phantom Pings</t>
+  </si>
+  <si>
+    <t>Packet Whisper</t>
   </si>
   <si>
     <t>Guestbook</t>
@@ -684,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,10 +730,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -730,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -741,10 +753,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -753,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -764,10 +776,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -787,10 +799,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -799,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -810,10 +822,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -822,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -833,10 +845,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -845,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -856,10 +868,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -868,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -879,10 +891,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -891,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -902,10 +914,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -914,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -925,10 +937,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -937,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -948,10 +960,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -960,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -971,10 +983,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -983,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -994,10 +1006,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1006,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1017,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1040,10 +1052,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1052,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1063,10 +1075,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1075,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1086,10 +1098,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1098,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1109,10 +1121,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1121,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>50</v>
@@ -1132,10 +1144,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1144,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1155,10 +1167,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1167,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1178,10 +1190,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1190,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1201,10 +1213,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1213,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1224,10 +1236,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1236,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1247,10 +1259,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1259,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1270,10 +1282,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1282,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1293,10 +1305,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1305,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1316,10 +1328,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1328,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1339,10 +1351,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1351,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1362,10 +1374,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1374,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1385,10 +1397,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1397,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1408,10 +1420,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1420,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1431,10 +1443,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1443,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1454,10 +1466,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1466,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1477,10 +1489,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1489,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1500,10 +1512,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1512,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>50</v>
@@ -1523,10 +1535,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1535,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1546,10 +1558,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1558,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1569,10 +1581,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1581,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1592,10 +1604,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1615,10 +1627,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1638,10 +1650,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1650,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1661,10 +1673,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1673,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1684,10 +1696,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1696,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G44">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1707,10 +1719,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1719,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1730,10 +1742,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1742,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1753,21 +1765,67 @@
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>33</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>50</v>
       </c>
     </row>
@@ -1819,6 +1877,8 @@
     <hyperlink ref="B45" r:id="rId44"/>
     <hyperlink ref="B46" r:id="rId45"/>
     <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,148 +37,148 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750503018-9</t>
-  </si>
-  <si>
-    <t>1750503018-10</t>
-  </si>
-  <si>
-    <t>1750503018-11</t>
-  </si>
-  <si>
-    <t>1750503018-12</t>
-  </si>
-  <si>
-    <t>1750503018-13</t>
-  </si>
-  <si>
-    <t>1750503018-14</t>
-  </si>
-  <si>
-    <t>1750503018-15</t>
-  </si>
-  <si>
-    <t>1750503018-16</t>
-  </si>
-  <si>
-    <t>1750503018-17</t>
-  </si>
-  <si>
-    <t>1750503018-18</t>
-  </si>
-  <si>
-    <t>1750503018-19</t>
-  </si>
-  <si>
-    <t>1750503018-20</t>
-  </si>
-  <si>
-    <t>1750503018-21</t>
-  </si>
-  <si>
-    <t>1750503018-22</t>
-  </si>
-  <si>
-    <t>1750503018-23</t>
-  </si>
-  <si>
-    <t>1750503018-24</t>
-  </si>
-  <si>
-    <t>1750503018-25</t>
-  </si>
-  <si>
-    <t>1750503018-26</t>
-  </si>
-  <si>
-    <t>1750503018-27</t>
-  </si>
-  <si>
-    <t>1750503018-28</t>
-  </si>
-  <si>
-    <t>1750503018-29</t>
-  </si>
-  <si>
-    <t>1750503018-30</t>
-  </si>
-  <si>
-    <t>1750503018-31</t>
-  </si>
-  <si>
-    <t>1750503018-32</t>
-  </si>
-  <si>
-    <t>1750503018-33</t>
-  </si>
-  <si>
-    <t>1750503018-34</t>
-  </si>
-  <si>
-    <t>1750503018-35</t>
-  </si>
-  <si>
-    <t>1750503018-36</t>
-  </si>
-  <si>
-    <t>1750503018-37</t>
-  </si>
-  <si>
-    <t>1750503018-38</t>
-  </si>
-  <si>
-    <t>1750503018-39</t>
-  </si>
-  <si>
-    <t>1750503018-40</t>
-  </si>
-  <si>
-    <t>1750503018-41</t>
-  </si>
-  <si>
-    <t>1750503018-42</t>
-  </si>
-  <si>
-    <t>1750503018-43</t>
-  </si>
-  <si>
-    <t>1750503018-44</t>
-  </si>
-  <si>
-    <t>1750503018-45</t>
-  </si>
-  <si>
-    <t>1750503018-46</t>
-  </si>
-  <si>
-    <t>1750503018-47</t>
-  </si>
-  <si>
-    <t>1750503018-48</t>
-  </si>
-  <si>
-    <t>1750503018-49</t>
-  </si>
-  <si>
-    <t>1750503018-50</t>
-  </si>
-  <si>
-    <t>1750503018-51</t>
-  </si>
-  <si>
-    <t>1750503018-52</t>
-  </si>
-  <si>
-    <t>1750503018-53</t>
-  </si>
-  <si>
-    <t>1750503018-54</t>
-  </si>
-  <si>
-    <t>1750503018-55</t>
-  </si>
-  <si>
-    <t>1750503018-56</t>
+    <t>1750504679-9</t>
+  </si>
+  <si>
+    <t>1750504679-10</t>
+  </si>
+  <si>
+    <t>1750504679-11</t>
+  </si>
+  <si>
+    <t>1750504679-12</t>
+  </si>
+  <si>
+    <t>1750504679-13</t>
+  </si>
+  <si>
+    <t>1750504679-14</t>
+  </si>
+  <si>
+    <t>1750504679-15</t>
+  </si>
+  <si>
+    <t>1750504679-16</t>
+  </si>
+  <si>
+    <t>1750504679-17</t>
+  </si>
+  <si>
+    <t>1750504679-18</t>
+  </si>
+  <si>
+    <t>1750504679-19</t>
+  </si>
+  <si>
+    <t>1750504679-20</t>
+  </si>
+  <si>
+    <t>1750504679-21</t>
+  </si>
+  <si>
+    <t>1750504679-22</t>
+  </si>
+  <si>
+    <t>1750504679-23</t>
+  </si>
+  <si>
+    <t>1750504679-24</t>
+  </si>
+  <si>
+    <t>1750504679-25</t>
+  </si>
+  <si>
+    <t>1750504679-26</t>
+  </si>
+  <si>
+    <t>1750504679-27</t>
+  </si>
+  <si>
+    <t>1750504679-28</t>
+  </si>
+  <si>
+    <t>1750504679-29</t>
+  </si>
+  <si>
+    <t>1750504679-30</t>
+  </si>
+  <si>
+    <t>1750504679-31</t>
+  </si>
+  <si>
+    <t>1750504679-32</t>
+  </si>
+  <si>
+    <t>1750504679-33</t>
+  </si>
+  <si>
+    <t>1750504679-34</t>
+  </si>
+  <si>
+    <t>1750504679-35</t>
+  </si>
+  <si>
+    <t>1750504679-36</t>
+  </si>
+  <si>
+    <t>1750504679-37</t>
+  </si>
+  <si>
+    <t>1750504679-38</t>
+  </si>
+  <si>
+    <t>1750504679-39</t>
+  </si>
+  <si>
+    <t>1750504679-40</t>
+  </si>
+  <si>
+    <t>1750504679-41</t>
+  </si>
+  <si>
+    <t>1750504679-42</t>
+  </si>
+  <si>
+    <t>1750504679-43</t>
+  </si>
+  <si>
+    <t>1750504679-44</t>
+  </si>
+  <si>
+    <t>1750504679-45</t>
+  </si>
+  <si>
+    <t>1750504679-46</t>
+  </si>
+  <si>
+    <t>1750504679-47</t>
+  </si>
+  <si>
+    <t>1750504679-48</t>
+  </si>
+  <si>
+    <t>1750504679-49</t>
+  </si>
+  <si>
+    <t>1750504679-50</t>
+  </si>
+  <si>
+    <t>1750504679-51</t>
+  </si>
+  <si>
+    <t>1750504679-52</t>
+  </si>
+  <si>
+    <t>1750504679-53</t>
+  </si>
+  <si>
+    <t>1750504679-54</t>
+  </si>
+  <si>
+    <t>1750504679-55</t>
+  </si>
+  <si>
+    <t>1750504679-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:7">

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,148 +37,148 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750504679-9</t>
-  </si>
-  <si>
-    <t>1750504679-10</t>
-  </si>
-  <si>
-    <t>1750504679-11</t>
-  </si>
-  <si>
-    <t>1750504679-12</t>
-  </si>
-  <si>
-    <t>1750504679-13</t>
-  </si>
-  <si>
-    <t>1750504679-14</t>
-  </si>
-  <si>
-    <t>1750504679-15</t>
-  </si>
-  <si>
-    <t>1750504679-16</t>
-  </si>
-  <si>
-    <t>1750504679-17</t>
-  </si>
-  <si>
-    <t>1750504679-18</t>
-  </si>
-  <si>
-    <t>1750504679-19</t>
-  </si>
-  <si>
-    <t>1750504679-20</t>
-  </si>
-  <si>
-    <t>1750504679-21</t>
-  </si>
-  <si>
-    <t>1750504679-22</t>
-  </si>
-  <si>
-    <t>1750504679-23</t>
-  </si>
-  <si>
-    <t>1750504679-24</t>
-  </si>
-  <si>
-    <t>1750504679-25</t>
-  </si>
-  <si>
-    <t>1750504679-26</t>
-  </si>
-  <si>
-    <t>1750504679-27</t>
-  </si>
-  <si>
-    <t>1750504679-28</t>
-  </si>
-  <si>
-    <t>1750504679-29</t>
-  </si>
-  <si>
-    <t>1750504679-30</t>
-  </si>
-  <si>
-    <t>1750504679-31</t>
-  </si>
-  <si>
-    <t>1750504679-32</t>
-  </si>
-  <si>
-    <t>1750504679-33</t>
-  </si>
-  <si>
-    <t>1750504679-34</t>
-  </si>
-  <si>
-    <t>1750504679-35</t>
-  </si>
-  <si>
-    <t>1750504679-36</t>
-  </si>
-  <si>
-    <t>1750504679-37</t>
-  </si>
-  <si>
-    <t>1750504679-38</t>
-  </si>
-  <si>
-    <t>1750504679-39</t>
-  </si>
-  <si>
-    <t>1750504679-40</t>
-  </si>
-  <si>
-    <t>1750504679-41</t>
-  </si>
-  <si>
-    <t>1750504679-42</t>
-  </si>
-  <si>
-    <t>1750504679-43</t>
-  </si>
-  <si>
-    <t>1750504679-44</t>
-  </si>
-  <si>
-    <t>1750504679-45</t>
-  </si>
-  <si>
-    <t>1750504679-46</t>
-  </si>
-  <si>
-    <t>1750504679-47</t>
-  </si>
-  <si>
-    <t>1750504679-48</t>
-  </si>
-  <si>
-    <t>1750504679-49</t>
-  </si>
-  <si>
-    <t>1750504679-50</t>
-  </si>
-  <si>
-    <t>1750504679-51</t>
-  </si>
-  <si>
-    <t>1750504679-52</t>
-  </si>
-  <si>
-    <t>1750504679-53</t>
-  </si>
-  <si>
-    <t>1750504679-54</t>
-  </si>
-  <si>
-    <t>1750504679-55</t>
-  </si>
-  <si>
-    <t>1750504679-56</t>
+    <t>1750515990-9</t>
+  </si>
+  <si>
+    <t>1750515990-10</t>
+  </si>
+  <si>
+    <t>1750515990-11</t>
+  </si>
+  <si>
+    <t>1750515990-12</t>
+  </si>
+  <si>
+    <t>1750515990-13</t>
+  </si>
+  <si>
+    <t>1750515990-14</t>
+  </si>
+  <si>
+    <t>1750515990-15</t>
+  </si>
+  <si>
+    <t>1750515990-16</t>
+  </si>
+  <si>
+    <t>1750515990-17</t>
+  </si>
+  <si>
+    <t>1750515990-18</t>
+  </si>
+  <si>
+    <t>1750515990-19</t>
+  </si>
+  <si>
+    <t>1750515990-20</t>
+  </si>
+  <si>
+    <t>1750515990-21</t>
+  </si>
+  <si>
+    <t>1750515990-22</t>
+  </si>
+  <si>
+    <t>1750515990-23</t>
+  </si>
+  <si>
+    <t>1750515990-24</t>
+  </si>
+  <si>
+    <t>1750515990-25</t>
+  </si>
+  <si>
+    <t>1750515990-26</t>
+  </si>
+  <si>
+    <t>1750515990-27</t>
+  </si>
+  <si>
+    <t>1750515990-28</t>
+  </si>
+  <si>
+    <t>1750515990-29</t>
+  </si>
+  <si>
+    <t>1750515990-30</t>
+  </si>
+  <si>
+    <t>1750515990-31</t>
+  </si>
+  <si>
+    <t>1750515990-32</t>
+  </si>
+  <si>
+    <t>1750515990-33</t>
+  </si>
+  <si>
+    <t>1750515990-34</t>
+  </si>
+  <si>
+    <t>1750515990-35</t>
+  </si>
+  <si>
+    <t>1750515990-36</t>
+  </si>
+  <si>
+    <t>1750515990-37</t>
+  </si>
+  <si>
+    <t>1750515990-38</t>
+  </si>
+  <si>
+    <t>1750515990-39</t>
+  </si>
+  <si>
+    <t>1750515990-40</t>
+  </si>
+  <si>
+    <t>1750515990-41</t>
+  </si>
+  <si>
+    <t>1750515990-42</t>
+  </si>
+  <si>
+    <t>1750515990-43</t>
+  </si>
+  <si>
+    <t>1750515990-44</t>
+  </si>
+  <si>
+    <t>1750515990-45</t>
+  </si>
+  <si>
+    <t>1750515990-46</t>
+  </si>
+  <si>
+    <t>1750515990-47</t>
+  </si>
+  <si>
+    <t>1750515990-48</t>
+  </si>
+  <si>
+    <t>1750515990-49</t>
+  </si>
+  <si>
+    <t>1750515990-50</t>
+  </si>
+  <si>
+    <t>1750515990-51</t>
+  </si>
+  <si>
+    <t>1750515990-52</t>
+  </si>
+  <si>
+    <t>1750515990-53</t>
+  </si>
+  <si>
+    <t>1750515990-54</t>
+  </si>
+  <si>
+    <t>1750515990-55</t>
+  </si>
+  <si>
+    <t>1750515990-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:7">

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,148 +37,148 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750515990-9</t>
-  </si>
-  <si>
-    <t>1750515990-10</t>
-  </si>
-  <si>
-    <t>1750515990-11</t>
-  </si>
-  <si>
-    <t>1750515990-12</t>
-  </si>
-  <si>
-    <t>1750515990-13</t>
-  </si>
-  <si>
-    <t>1750515990-14</t>
-  </si>
-  <si>
-    <t>1750515990-15</t>
-  </si>
-  <si>
-    <t>1750515990-16</t>
-  </si>
-  <si>
-    <t>1750515990-17</t>
-  </si>
-  <si>
-    <t>1750515990-18</t>
-  </si>
-  <si>
-    <t>1750515990-19</t>
-  </si>
-  <si>
-    <t>1750515990-20</t>
-  </si>
-  <si>
-    <t>1750515990-21</t>
-  </si>
-  <si>
-    <t>1750515990-22</t>
-  </si>
-  <si>
-    <t>1750515990-23</t>
-  </si>
-  <si>
-    <t>1750515990-24</t>
-  </si>
-  <si>
-    <t>1750515990-25</t>
-  </si>
-  <si>
-    <t>1750515990-26</t>
-  </si>
-  <si>
-    <t>1750515990-27</t>
-  </si>
-  <si>
-    <t>1750515990-28</t>
-  </si>
-  <si>
-    <t>1750515990-29</t>
-  </si>
-  <si>
-    <t>1750515990-30</t>
-  </si>
-  <si>
-    <t>1750515990-31</t>
-  </si>
-  <si>
-    <t>1750515990-32</t>
-  </si>
-  <si>
-    <t>1750515990-33</t>
-  </si>
-  <si>
-    <t>1750515990-34</t>
-  </si>
-  <si>
-    <t>1750515990-35</t>
-  </si>
-  <si>
-    <t>1750515990-36</t>
-  </si>
-  <si>
-    <t>1750515990-37</t>
-  </si>
-  <si>
-    <t>1750515990-38</t>
-  </si>
-  <si>
-    <t>1750515990-39</t>
-  </si>
-  <si>
-    <t>1750515990-40</t>
-  </si>
-  <si>
-    <t>1750515990-41</t>
-  </si>
-  <si>
-    <t>1750515990-42</t>
-  </si>
-  <si>
-    <t>1750515990-43</t>
-  </si>
-  <si>
-    <t>1750515990-44</t>
-  </si>
-  <si>
-    <t>1750515990-45</t>
-  </si>
-  <si>
-    <t>1750515990-46</t>
-  </si>
-  <si>
-    <t>1750515990-47</t>
-  </si>
-  <si>
-    <t>1750515990-48</t>
-  </si>
-  <si>
-    <t>1750515990-49</t>
-  </si>
-  <si>
-    <t>1750515990-50</t>
-  </si>
-  <si>
-    <t>1750515990-51</t>
-  </si>
-  <si>
-    <t>1750515990-52</t>
-  </si>
-  <si>
-    <t>1750515990-53</t>
-  </si>
-  <si>
-    <t>1750515990-54</t>
-  </si>
-  <si>
-    <t>1750515990-55</t>
-  </si>
-  <si>
-    <t>1750515990-56</t>
+    <t>1750526038-9</t>
+  </si>
+  <si>
+    <t>1750526038-10</t>
+  </si>
+  <si>
+    <t>1750526038-11</t>
+  </si>
+  <si>
+    <t>1750526038-12</t>
+  </si>
+  <si>
+    <t>1750526038-13</t>
+  </si>
+  <si>
+    <t>1750526038-14</t>
+  </si>
+  <si>
+    <t>1750526038-15</t>
+  </si>
+  <si>
+    <t>1750526038-16</t>
+  </si>
+  <si>
+    <t>1750526038-17</t>
+  </si>
+  <si>
+    <t>1750526038-18</t>
+  </si>
+  <si>
+    <t>1750526038-19</t>
+  </si>
+  <si>
+    <t>1750526038-20</t>
+  </si>
+  <si>
+    <t>1750526038-21</t>
+  </si>
+  <si>
+    <t>1750526038-22</t>
+  </si>
+  <si>
+    <t>1750526038-23</t>
+  </si>
+  <si>
+    <t>1750526038-24</t>
+  </si>
+  <si>
+    <t>1750526038-25</t>
+  </si>
+  <si>
+    <t>1750526038-26</t>
+  </si>
+  <si>
+    <t>1750526038-27</t>
+  </si>
+  <si>
+    <t>1750526038-28</t>
+  </si>
+  <si>
+    <t>1750526038-29</t>
+  </si>
+  <si>
+    <t>1750526038-30</t>
+  </si>
+  <si>
+    <t>1750526038-31</t>
+  </si>
+  <si>
+    <t>1750526038-32</t>
+  </si>
+  <si>
+    <t>1750526038-33</t>
+  </si>
+  <si>
+    <t>1750526038-34</t>
+  </si>
+  <si>
+    <t>1750526038-35</t>
+  </si>
+  <si>
+    <t>1750526038-36</t>
+  </si>
+  <si>
+    <t>1750526038-37</t>
+  </si>
+  <si>
+    <t>1750526038-38</t>
+  </si>
+  <si>
+    <t>1750526038-39</t>
+  </si>
+  <si>
+    <t>1750526038-40</t>
+  </si>
+  <si>
+    <t>1750526038-41</t>
+  </si>
+  <si>
+    <t>1750526038-42</t>
+  </si>
+  <si>
+    <t>1750526038-43</t>
+  </si>
+  <si>
+    <t>1750526038-44</t>
+  </si>
+  <si>
+    <t>1750526038-45</t>
+  </si>
+  <si>
+    <t>1750526038-46</t>
+  </si>
+  <si>
+    <t>1750526038-47</t>
+  </si>
+  <si>
+    <t>1750526038-48</t>
+  </si>
+  <si>
+    <t>1750526038-49</t>
+  </si>
+  <si>
+    <t>1750526038-50</t>
+  </si>
+  <si>
+    <t>1750526038-51</t>
+  </si>
+  <si>
+    <t>1750526038-52</t>
+  </si>
+  <si>
+    <t>1750526038-53</t>
+  </si>
+  <si>
+    <t>1750526038-54</t>
+  </si>
+  <si>
+    <t>1750526038-55</t>
+  </si>
+  <si>
+    <t>1750526038-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44">
         <v>50</v>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,148 +37,148 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750526038-9</t>
-  </si>
-  <si>
-    <t>1750526038-10</t>
-  </si>
-  <si>
-    <t>1750526038-11</t>
-  </si>
-  <si>
-    <t>1750526038-12</t>
-  </si>
-  <si>
-    <t>1750526038-13</t>
-  </si>
-  <si>
-    <t>1750526038-14</t>
-  </si>
-  <si>
-    <t>1750526038-15</t>
-  </si>
-  <si>
-    <t>1750526038-16</t>
-  </si>
-  <si>
-    <t>1750526038-17</t>
-  </si>
-  <si>
-    <t>1750526038-18</t>
-  </si>
-  <si>
-    <t>1750526038-19</t>
-  </si>
-  <si>
-    <t>1750526038-20</t>
-  </si>
-  <si>
-    <t>1750526038-21</t>
-  </si>
-  <si>
-    <t>1750526038-22</t>
-  </si>
-  <si>
-    <t>1750526038-23</t>
-  </si>
-  <si>
-    <t>1750526038-24</t>
-  </si>
-  <si>
-    <t>1750526038-25</t>
-  </si>
-  <si>
-    <t>1750526038-26</t>
-  </si>
-  <si>
-    <t>1750526038-27</t>
-  </si>
-  <si>
-    <t>1750526038-28</t>
-  </si>
-  <si>
-    <t>1750526038-29</t>
-  </si>
-  <si>
-    <t>1750526038-30</t>
-  </si>
-  <si>
-    <t>1750526038-31</t>
-  </si>
-  <si>
-    <t>1750526038-32</t>
-  </si>
-  <si>
-    <t>1750526038-33</t>
-  </si>
-  <si>
-    <t>1750526038-34</t>
-  </si>
-  <si>
-    <t>1750526038-35</t>
-  </si>
-  <si>
-    <t>1750526038-36</t>
-  </si>
-  <si>
-    <t>1750526038-37</t>
-  </si>
-  <si>
-    <t>1750526038-38</t>
-  </si>
-  <si>
-    <t>1750526038-39</t>
-  </si>
-  <si>
-    <t>1750526038-40</t>
-  </si>
-  <si>
-    <t>1750526038-41</t>
-  </si>
-  <si>
-    <t>1750526038-42</t>
-  </si>
-  <si>
-    <t>1750526038-43</t>
-  </si>
-  <si>
-    <t>1750526038-44</t>
-  </si>
-  <si>
-    <t>1750526038-45</t>
-  </si>
-  <si>
-    <t>1750526038-46</t>
-  </si>
-  <si>
-    <t>1750526038-47</t>
-  </si>
-  <si>
-    <t>1750526038-48</t>
-  </si>
-  <si>
-    <t>1750526038-49</t>
-  </si>
-  <si>
-    <t>1750526038-50</t>
-  </si>
-  <si>
-    <t>1750526038-51</t>
-  </si>
-  <si>
-    <t>1750526038-52</t>
-  </si>
-  <si>
-    <t>1750526038-53</t>
-  </si>
-  <si>
-    <t>1750526038-54</t>
-  </si>
-  <si>
-    <t>1750526038-55</t>
-  </si>
-  <si>
-    <t>1750526038-56</t>
+    <t>1750526848-9</t>
+  </si>
+  <si>
+    <t>1750526848-10</t>
+  </si>
+  <si>
+    <t>1750526848-11</t>
+  </si>
+  <si>
+    <t>1750526848-12</t>
+  </si>
+  <si>
+    <t>1750526848-13</t>
+  </si>
+  <si>
+    <t>1750526848-14</t>
+  </si>
+  <si>
+    <t>1750526848-15</t>
+  </si>
+  <si>
+    <t>1750526848-16</t>
+  </si>
+  <si>
+    <t>1750526848-17</t>
+  </si>
+  <si>
+    <t>1750526848-18</t>
+  </si>
+  <si>
+    <t>1750526848-19</t>
+  </si>
+  <si>
+    <t>1750526848-20</t>
+  </si>
+  <si>
+    <t>1750526848-21</t>
+  </si>
+  <si>
+    <t>1750526848-22</t>
+  </si>
+  <si>
+    <t>1750526848-23</t>
+  </si>
+  <si>
+    <t>1750526848-24</t>
+  </si>
+  <si>
+    <t>1750526848-25</t>
+  </si>
+  <si>
+    <t>1750526848-26</t>
+  </si>
+  <si>
+    <t>1750526848-27</t>
+  </si>
+  <si>
+    <t>1750526848-28</t>
+  </si>
+  <si>
+    <t>1750526848-29</t>
+  </si>
+  <si>
+    <t>1750526848-30</t>
+  </si>
+  <si>
+    <t>1750526848-31</t>
+  </si>
+  <si>
+    <t>1750526848-32</t>
+  </si>
+  <si>
+    <t>1750526848-33</t>
+  </si>
+  <si>
+    <t>1750526848-34</t>
+  </si>
+  <si>
+    <t>1750526848-35</t>
+  </si>
+  <si>
+    <t>1750526848-36</t>
+  </si>
+  <si>
+    <t>1750526848-37</t>
+  </si>
+  <si>
+    <t>1750526848-38</t>
+  </si>
+  <si>
+    <t>1750526848-39</t>
+  </si>
+  <si>
+    <t>1750526848-40</t>
+  </si>
+  <si>
+    <t>1750526848-41</t>
+  </si>
+  <si>
+    <t>1750526848-42</t>
+  </si>
+  <si>
+    <t>1750526848-43</t>
+  </si>
+  <si>
+    <t>1750526848-44</t>
+  </si>
+  <si>
+    <t>1750526848-45</t>
+  </si>
+  <si>
+    <t>1750526848-46</t>
+  </si>
+  <si>
+    <t>1750526848-47</t>
+  </si>
+  <si>
+    <t>1750526848-48</t>
+  </si>
+  <si>
+    <t>1750526848-49</t>
+  </si>
+  <si>
+    <t>1750526848-50</t>
+  </si>
+  <si>
+    <t>1750526848-51</t>
+  </si>
+  <si>
+    <t>1750526848-52</t>
+  </si>
+  <si>
+    <t>1750526848-53</t>
+  </si>
+  <si>
+    <t>1750526848-54</t>
+  </si>
+  <si>
+    <t>1750526848-55</t>
+  </si>
+  <si>
+    <t>1750526848-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>50</v>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,148 +37,148 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750526848-9</t>
-  </si>
-  <si>
-    <t>1750526848-10</t>
-  </si>
-  <si>
-    <t>1750526848-11</t>
-  </si>
-  <si>
-    <t>1750526848-12</t>
-  </si>
-  <si>
-    <t>1750526848-13</t>
-  </si>
-  <si>
-    <t>1750526848-14</t>
-  </si>
-  <si>
-    <t>1750526848-15</t>
-  </si>
-  <si>
-    <t>1750526848-16</t>
-  </si>
-  <si>
-    <t>1750526848-17</t>
-  </si>
-  <si>
-    <t>1750526848-18</t>
-  </si>
-  <si>
-    <t>1750526848-19</t>
-  </si>
-  <si>
-    <t>1750526848-20</t>
-  </si>
-  <si>
-    <t>1750526848-21</t>
-  </si>
-  <si>
-    <t>1750526848-22</t>
-  </si>
-  <si>
-    <t>1750526848-23</t>
-  </si>
-  <si>
-    <t>1750526848-24</t>
-  </si>
-  <si>
-    <t>1750526848-25</t>
-  </si>
-  <si>
-    <t>1750526848-26</t>
-  </si>
-  <si>
-    <t>1750526848-27</t>
-  </si>
-  <si>
-    <t>1750526848-28</t>
-  </si>
-  <si>
-    <t>1750526848-29</t>
-  </si>
-  <si>
-    <t>1750526848-30</t>
-  </si>
-  <si>
-    <t>1750526848-31</t>
-  </si>
-  <si>
-    <t>1750526848-32</t>
-  </si>
-  <si>
-    <t>1750526848-33</t>
-  </si>
-  <si>
-    <t>1750526848-34</t>
-  </si>
-  <si>
-    <t>1750526848-35</t>
-  </si>
-  <si>
-    <t>1750526848-36</t>
-  </si>
-  <si>
-    <t>1750526848-37</t>
-  </si>
-  <si>
-    <t>1750526848-38</t>
-  </si>
-  <si>
-    <t>1750526848-39</t>
-  </si>
-  <si>
-    <t>1750526848-40</t>
-  </si>
-  <si>
-    <t>1750526848-41</t>
-  </si>
-  <si>
-    <t>1750526848-42</t>
-  </si>
-  <si>
-    <t>1750526848-43</t>
-  </si>
-  <si>
-    <t>1750526848-44</t>
-  </si>
-  <si>
-    <t>1750526848-45</t>
-  </si>
-  <si>
-    <t>1750526848-46</t>
-  </si>
-  <si>
-    <t>1750526848-47</t>
-  </si>
-  <si>
-    <t>1750526848-48</t>
-  </si>
-  <si>
-    <t>1750526848-49</t>
-  </si>
-  <si>
-    <t>1750526848-50</t>
-  </si>
-  <si>
-    <t>1750526848-51</t>
-  </si>
-  <si>
-    <t>1750526848-52</t>
-  </si>
-  <si>
-    <t>1750526848-53</t>
-  </si>
-  <si>
-    <t>1750526848-54</t>
-  </si>
-  <si>
-    <t>1750526848-55</t>
-  </si>
-  <si>
-    <t>1750526848-56</t>
+    <t>1750555666-9</t>
+  </si>
+  <si>
+    <t>1750555666-10</t>
+  </si>
+  <si>
+    <t>1750555666-11</t>
+  </si>
+  <si>
+    <t>1750555666-12</t>
+  </si>
+  <si>
+    <t>1750555666-13</t>
+  </si>
+  <si>
+    <t>1750555666-14</t>
+  </si>
+  <si>
+    <t>1750555666-15</t>
+  </si>
+  <si>
+    <t>1750555666-16</t>
+  </si>
+  <si>
+    <t>1750555666-17</t>
+  </si>
+  <si>
+    <t>1750555666-18</t>
+  </si>
+  <si>
+    <t>1750555666-19</t>
+  </si>
+  <si>
+    <t>1750555666-20</t>
+  </si>
+  <si>
+    <t>1750555666-21</t>
+  </si>
+  <si>
+    <t>1750555666-22</t>
+  </si>
+  <si>
+    <t>1750555666-23</t>
+  </si>
+  <si>
+    <t>1750555666-24</t>
+  </si>
+  <si>
+    <t>1750555666-25</t>
+  </si>
+  <si>
+    <t>1750555666-26</t>
+  </si>
+  <si>
+    <t>1750555666-27</t>
+  </si>
+  <si>
+    <t>1750555666-28</t>
+  </si>
+  <si>
+    <t>1750555666-29</t>
+  </si>
+  <si>
+    <t>1750555666-30</t>
+  </si>
+  <si>
+    <t>1750555666-31</t>
+  </si>
+  <si>
+    <t>1750555666-32</t>
+  </si>
+  <si>
+    <t>1750555666-33</t>
+  </si>
+  <si>
+    <t>1750555666-34</t>
+  </si>
+  <si>
+    <t>1750555666-35</t>
+  </si>
+  <si>
+    <t>1750555666-36</t>
+  </si>
+  <si>
+    <t>1750555666-37</t>
+  </si>
+  <si>
+    <t>1750555666-38</t>
+  </si>
+  <si>
+    <t>1750555666-39</t>
+  </si>
+  <si>
+    <t>1750555666-40</t>
+  </si>
+  <si>
+    <t>1750555666-41</t>
+  </si>
+  <si>
+    <t>1750555666-42</t>
+  </si>
+  <si>
+    <t>1750555666-43</t>
+  </si>
+  <si>
+    <t>1750555666-44</t>
+  </si>
+  <si>
+    <t>1750555666-45</t>
+  </si>
+  <si>
+    <t>1750555666-46</t>
+  </si>
+  <si>
+    <t>1750555666-47</t>
+  </si>
+  <si>
+    <t>1750555666-48</t>
+  </si>
+  <si>
+    <t>1750555666-49</t>
+  </si>
+  <si>
+    <t>1750555666-50</t>
+  </si>
+  <si>
+    <t>1750555666-51</t>
+  </si>
+  <si>
+    <t>1750555666-52</t>
+  </si>
+  <si>
+    <t>1750555666-53</t>
+  </si>
+  <si>
+    <t>1750555666-54</t>
+  </si>
+  <si>
+    <t>1750555666-55</t>
+  </si>
+  <si>
+    <t>1750555666-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>50</v>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,148 +37,148 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750555666-9</t>
-  </si>
-  <si>
-    <t>1750555666-10</t>
-  </si>
-  <si>
-    <t>1750555666-11</t>
-  </si>
-  <si>
-    <t>1750555666-12</t>
-  </si>
-  <si>
-    <t>1750555666-13</t>
-  </si>
-  <si>
-    <t>1750555666-14</t>
-  </si>
-  <si>
-    <t>1750555666-15</t>
-  </si>
-  <si>
-    <t>1750555666-16</t>
-  </si>
-  <si>
-    <t>1750555666-17</t>
-  </si>
-  <si>
-    <t>1750555666-18</t>
-  </si>
-  <si>
-    <t>1750555666-19</t>
-  </si>
-  <si>
-    <t>1750555666-20</t>
-  </si>
-  <si>
-    <t>1750555666-21</t>
-  </si>
-  <si>
-    <t>1750555666-22</t>
-  </si>
-  <si>
-    <t>1750555666-23</t>
-  </si>
-  <si>
-    <t>1750555666-24</t>
-  </si>
-  <si>
-    <t>1750555666-25</t>
-  </si>
-  <si>
-    <t>1750555666-26</t>
-  </si>
-  <si>
-    <t>1750555666-27</t>
-  </si>
-  <si>
-    <t>1750555666-28</t>
-  </si>
-  <si>
-    <t>1750555666-29</t>
-  </si>
-  <si>
-    <t>1750555666-30</t>
-  </si>
-  <si>
-    <t>1750555666-31</t>
-  </si>
-  <si>
-    <t>1750555666-32</t>
-  </si>
-  <si>
-    <t>1750555666-33</t>
-  </si>
-  <si>
-    <t>1750555666-34</t>
-  </si>
-  <si>
-    <t>1750555666-35</t>
-  </si>
-  <si>
-    <t>1750555666-36</t>
-  </si>
-  <si>
-    <t>1750555666-37</t>
-  </si>
-  <si>
-    <t>1750555666-38</t>
-  </si>
-  <si>
-    <t>1750555666-39</t>
-  </si>
-  <si>
-    <t>1750555666-40</t>
-  </si>
-  <si>
-    <t>1750555666-41</t>
-  </si>
-  <si>
-    <t>1750555666-42</t>
-  </si>
-  <si>
-    <t>1750555666-43</t>
-  </si>
-  <si>
-    <t>1750555666-44</t>
-  </si>
-  <si>
-    <t>1750555666-45</t>
-  </si>
-  <si>
-    <t>1750555666-46</t>
-  </si>
-  <si>
-    <t>1750555666-47</t>
-  </si>
-  <si>
-    <t>1750555666-48</t>
-  </si>
-  <si>
-    <t>1750555666-49</t>
-  </si>
-  <si>
-    <t>1750555666-50</t>
-  </si>
-  <si>
-    <t>1750555666-51</t>
-  </si>
-  <si>
-    <t>1750555666-52</t>
-  </si>
-  <si>
-    <t>1750555666-53</t>
-  </si>
-  <si>
-    <t>1750555666-54</t>
-  </si>
-  <si>
-    <t>1750555666-55</t>
-  </si>
-  <si>
-    <t>1750555666-56</t>
+    <t>1750560156-9</t>
+  </si>
+  <si>
+    <t>1750560156-10</t>
+  </si>
+  <si>
+    <t>1750560156-11</t>
+  </si>
+  <si>
+    <t>1750560156-12</t>
+  </si>
+  <si>
+    <t>1750560156-13</t>
+  </si>
+  <si>
+    <t>1750560156-14</t>
+  </si>
+  <si>
+    <t>1750560156-15</t>
+  </si>
+  <si>
+    <t>1750560156-16</t>
+  </si>
+  <si>
+    <t>1750560156-17</t>
+  </si>
+  <si>
+    <t>1750560156-18</t>
+  </si>
+  <si>
+    <t>1750560156-19</t>
+  </si>
+  <si>
+    <t>1750560156-20</t>
+  </si>
+  <si>
+    <t>1750560156-21</t>
+  </si>
+  <si>
+    <t>1750560156-22</t>
+  </si>
+  <si>
+    <t>1750560156-23</t>
+  </si>
+  <si>
+    <t>1750560156-24</t>
+  </si>
+  <si>
+    <t>1750560156-25</t>
+  </si>
+  <si>
+    <t>1750560156-26</t>
+  </si>
+  <si>
+    <t>1750560156-27</t>
+  </si>
+  <si>
+    <t>1750560156-28</t>
+  </si>
+  <si>
+    <t>1750560156-29</t>
+  </si>
+  <si>
+    <t>1750560156-30</t>
+  </si>
+  <si>
+    <t>1750560156-31</t>
+  </si>
+  <si>
+    <t>1750560156-32</t>
+  </si>
+  <si>
+    <t>1750560156-33</t>
+  </si>
+  <si>
+    <t>1750560156-34</t>
+  </si>
+  <si>
+    <t>1750560156-35</t>
+  </si>
+  <si>
+    <t>1750560156-36</t>
+  </si>
+  <si>
+    <t>1750560156-37</t>
+  </si>
+  <si>
+    <t>1750560156-38</t>
+  </si>
+  <si>
+    <t>1750560156-39</t>
+  </si>
+  <si>
+    <t>1750560156-40</t>
+  </si>
+  <si>
+    <t>1750560156-41</t>
+  </si>
+  <si>
+    <t>1750560156-42</t>
+  </si>
+  <si>
+    <t>1750560156-43</t>
+  </si>
+  <si>
+    <t>1750560156-44</t>
+  </si>
+  <si>
+    <t>1750560156-45</t>
+  </si>
+  <si>
+    <t>1750560156-46</t>
+  </si>
+  <si>
+    <t>1750560156-47</t>
+  </si>
+  <si>
+    <t>1750560156-48</t>
+  </si>
+  <si>
+    <t>1750560156-49</t>
+  </si>
+  <si>
+    <t>1750560156-50</t>
+  </si>
+  <si>
+    <t>1750560156-51</t>
+  </si>
+  <si>
+    <t>1750560156-52</t>
+  </si>
+  <si>
+    <t>1750560156-53</t>
+  </si>
+  <si>
+    <t>1750560156-54</t>
+  </si>
+  <si>
+    <t>1750560156-55</t>
+  </si>
+  <si>
+    <t>1750560156-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7">

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,148 +37,148 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750560156-9</t>
-  </si>
-  <si>
-    <t>1750560156-10</t>
-  </si>
-  <si>
-    <t>1750560156-11</t>
-  </si>
-  <si>
-    <t>1750560156-12</t>
-  </si>
-  <si>
-    <t>1750560156-13</t>
-  </si>
-  <si>
-    <t>1750560156-14</t>
-  </si>
-  <si>
-    <t>1750560156-15</t>
-  </si>
-  <si>
-    <t>1750560156-16</t>
-  </si>
-  <si>
-    <t>1750560156-17</t>
-  </si>
-  <si>
-    <t>1750560156-18</t>
-  </si>
-  <si>
-    <t>1750560156-19</t>
-  </si>
-  <si>
-    <t>1750560156-20</t>
-  </si>
-  <si>
-    <t>1750560156-21</t>
-  </si>
-  <si>
-    <t>1750560156-22</t>
-  </si>
-  <si>
-    <t>1750560156-23</t>
-  </si>
-  <si>
-    <t>1750560156-24</t>
-  </si>
-  <si>
-    <t>1750560156-25</t>
-  </si>
-  <si>
-    <t>1750560156-26</t>
-  </si>
-  <si>
-    <t>1750560156-27</t>
-  </si>
-  <si>
-    <t>1750560156-28</t>
-  </si>
-  <si>
-    <t>1750560156-29</t>
-  </si>
-  <si>
-    <t>1750560156-30</t>
-  </si>
-  <si>
-    <t>1750560156-31</t>
-  </si>
-  <si>
-    <t>1750560156-32</t>
-  </si>
-  <si>
-    <t>1750560156-33</t>
-  </si>
-  <si>
-    <t>1750560156-34</t>
-  </si>
-  <si>
-    <t>1750560156-35</t>
-  </si>
-  <si>
-    <t>1750560156-36</t>
-  </si>
-  <si>
-    <t>1750560156-37</t>
-  </si>
-  <si>
-    <t>1750560156-38</t>
-  </si>
-  <si>
-    <t>1750560156-39</t>
-  </si>
-  <si>
-    <t>1750560156-40</t>
-  </si>
-  <si>
-    <t>1750560156-41</t>
-  </si>
-  <si>
-    <t>1750560156-42</t>
-  </si>
-  <si>
-    <t>1750560156-43</t>
-  </si>
-  <si>
-    <t>1750560156-44</t>
-  </si>
-  <si>
-    <t>1750560156-45</t>
-  </si>
-  <si>
-    <t>1750560156-46</t>
-  </si>
-  <si>
-    <t>1750560156-47</t>
-  </si>
-  <si>
-    <t>1750560156-48</t>
-  </si>
-  <si>
-    <t>1750560156-49</t>
-  </si>
-  <si>
-    <t>1750560156-50</t>
-  </si>
-  <si>
-    <t>1750560156-51</t>
-  </si>
-  <si>
-    <t>1750560156-52</t>
-  </si>
-  <si>
-    <t>1750560156-53</t>
-  </si>
-  <si>
-    <t>1750560156-54</t>
-  </si>
-  <si>
-    <t>1750560156-55</t>
-  </si>
-  <si>
-    <t>1750560156-56</t>
+    <t>1750570043-9</t>
+  </si>
+  <si>
+    <t>1750570043-10</t>
+  </si>
+  <si>
+    <t>1750570043-11</t>
+  </si>
+  <si>
+    <t>1750570043-12</t>
+  </si>
+  <si>
+    <t>1750570043-13</t>
+  </si>
+  <si>
+    <t>1750570043-14</t>
+  </si>
+  <si>
+    <t>1750570043-15</t>
+  </si>
+  <si>
+    <t>1750570043-16</t>
+  </si>
+  <si>
+    <t>1750570043-17</t>
+  </si>
+  <si>
+    <t>1750570043-18</t>
+  </si>
+  <si>
+    <t>1750570043-19</t>
+  </si>
+  <si>
+    <t>1750570043-20</t>
+  </si>
+  <si>
+    <t>1750570043-21</t>
+  </si>
+  <si>
+    <t>1750570043-22</t>
+  </si>
+  <si>
+    <t>1750570043-23</t>
+  </si>
+  <si>
+    <t>1750570043-24</t>
+  </si>
+  <si>
+    <t>1750570043-25</t>
+  </si>
+  <si>
+    <t>1750570043-26</t>
+  </si>
+  <si>
+    <t>1750570043-27</t>
+  </si>
+  <si>
+    <t>1750570043-28</t>
+  </si>
+  <si>
+    <t>1750570043-29</t>
+  </si>
+  <si>
+    <t>1750570043-30</t>
+  </si>
+  <si>
+    <t>1750570043-31</t>
+  </si>
+  <si>
+    <t>1750570043-32</t>
+  </si>
+  <si>
+    <t>1750570043-33</t>
+  </si>
+  <si>
+    <t>1750570043-34</t>
+  </si>
+  <si>
+    <t>1750570043-35</t>
+  </si>
+  <si>
+    <t>1750570043-36</t>
+  </si>
+  <si>
+    <t>1750570043-37</t>
+  </si>
+  <si>
+    <t>1750570043-38</t>
+  </si>
+  <si>
+    <t>1750570043-39</t>
+  </si>
+  <si>
+    <t>1750570043-40</t>
+  </si>
+  <si>
+    <t>1750570043-41</t>
+  </si>
+  <si>
+    <t>1750570043-42</t>
+  </si>
+  <si>
+    <t>1750570043-43</t>
+  </si>
+  <si>
+    <t>1750570043-44</t>
+  </si>
+  <si>
+    <t>1750570043-45</t>
+  </si>
+  <si>
+    <t>1750570043-46</t>
+  </si>
+  <si>
+    <t>1750570043-47</t>
+  </si>
+  <si>
+    <t>1750570043-48</t>
+  </si>
+  <si>
+    <t>1750570043-49</t>
+  </si>
+  <si>
+    <t>1750570043-50</t>
+  </si>
+  <si>
+    <t>1750570043-51</t>
+  </si>
+  <si>
+    <t>1750570043-52</t>
+  </si>
+  <si>
+    <t>1750570043-53</t>
+  </si>
+  <si>
+    <t>1750570043-54</t>
+  </si>
+  <si>
+    <t>1750570043-55</t>
+  </si>
+  <si>
+    <t>1750570043-56</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -37,151 +37,157 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1750570043-9</t>
-  </si>
-  <si>
-    <t>1750570043-10</t>
-  </si>
-  <si>
-    <t>1750570043-11</t>
-  </si>
-  <si>
-    <t>1750570043-12</t>
-  </si>
-  <si>
-    <t>1750570043-13</t>
-  </si>
-  <si>
-    <t>1750570043-14</t>
-  </si>
-  <si>
-    <t>1750570043-15</t>
-  </si>
-  <si>
-    <t>1750570043-16</t>
-  </si>
-  <si>
-    <t>1750570043-17</t>
-  </si>
-  <si>
-    <t>1750570043-18</t>
-  </si>
-  <si>
-    <t>1750570043-19</t>
-  </si>
-  <si>
-    <t>1750570043-20</t>
-  </si>
-  <si>
-    <t>1750570043-21</t>
-  </si>
-  <si>
-    <t>1750570043-22</t>
-  </si>
-  <si>
-    <t>1750570043-23</t>
-  </si>
-  <si>
-    <t>1750570043-24</t>
-  </si>
-  <si>
-    <t>1750570043-25</t>
-  </si>
-  <si>
-    <t>1750570043-26</t>
-  </si>
-  <si>
-    <t>1750570043-27</t>
-  </si>
-  <si>
-    <t>1750570043-28</t>
-  </si>
-  <si>
-    <t>1750570043-29</t>
-  </si>
-  <si>
-    <t>1750570043-30</t>
-  </si>
-  <si>
-    <t>1750570043-31</t>
-  </si>
-  <si>
-    <t>1750570043-32</t>
-  </si>
-  <si>
-    <t>1750570043-33</t>
-  </si>
-  <si>
-    <t>1750570043-34</t>
-  </si>
-  <si>
-    <t>1750570043-35</t>
-  </si>
-  <si>
-    <t>1750570043-36</t>
-  </si>
-  <si>
-    <t>1750570043-37</t>
-  </si>
-  <si>
-    <t>1750570043-38</t>
-  </si>
-  <si>
-    <t>1750570043-39</t>
-  </si>
-  <si>
-    <t>1750570043-40</t>
-  </si>
-  <si>
-    <t>1750570043-41</t>
-  </si>
-  <si>
-    <t>1750570043-42</t>
-  </si>
-  <si>
-    <t>1750570043-43</t>
-  </si>
-  <si>
-    <t>1750570043-44</t>
-  </si>
-  <si>
-    <t>1750570043-45</t>
-  </si>
-  <si>
-    <t>1750570043-46</t>
-  </si>
-  <si>
-    <t>1750570043-47</t>
-  </si>
-  <si>
-    <t>1750570043-48</t>
-  </si>
-  <si>
-    <t>1750570043-49</t>
-  </si>
-  <si>
-    <t>1750570043-50</t>
-  </si>
-  <si>
-    <t>1750570043-51</t>
-  </si>
-  <si>
-    <t>1750570043-52</t>
-  </si>
-  <si>
-    <t>1750570043-53</t>
-  </si>
-  <si>
-    <t>1750570043-54</t>
-  </si>
-  <si>
-    <t>1750570043-55</t>
-  </si>
-  <si>
-    <t>1750570043-56</t>
+    <t>1751870191-9</t>
+  </si>
+  <si>
+    <t>1751870191-10</t>
+  </si>
+  <si>
+    <t>1751870191-11</t>
+  </si>
+  <si>
+    <t>1751870191-12</t>
+  </si>
+  <si>
+    <t>1751870191-13</t>
+  </si>
+  <si>
+    <t>1751870191-14</t>
+  </si>
+  <si>
+    <t>1751870191-15</t>
+  </si>
+  <si>
+    <t>1751870191-16</t>
+  </si>
+  <si>
+    <t>1751870191-17</t>
+  </si>
+  <si>
+    <t>1751870191-18</t>
+  </si>
+  <si>
+    <t>1751870191-19</t>
+  </si>
+  <si>
+    <t>1751870191-20</t>
+  </si>
+  <si>
+    <t>1751870191-21</t>
+  </si>
+  <si>
+    <t>1751870191-22</t>
+  </si>
+  <si>
+    <t>1751870191-23</t>
+  </si>
+  <si>
+    <t>1751870191-24</t>
+  </si>
+  <si>
+    <t>1751870191-25</t>
+  </si>
+  <si>
+    <t>1751870191-26</t>
+  </si>
+  <si>
+    <t>1751870191-27</t>
+  </si>
+  <si>
+    <t>1751870191-28</t>
+  </si>
+  <si>
+    <t>1751870191-29</t>
+  </si>
+  <si>
+    <t>1751870191-30</t>
+  </si>
+  <si>
+    <t>1751870191-31</t>
+  </si>
+  <si>
+    <t>1751870191-32</t>
+  </si>
+  <si>
+    <t>1751870191-33</t>
+  </si>
+  <si>
+    <t>1751870191-34</t>
+  </si>
+  <si>
+    <t>1751870191-35</t>
+  </si>
+  <si>
+    <t>1751870191-36</t>
+  </si>
+  <si>
+    <t>1751870191-37</t>
+  </si>
+  <si>
+    <t>1751870191-38</t>
+  </si>
+  <si>
+    <t>1751870191-39</t>
+  </si>
+  <si>
+    <t>1751870191-40</t>
+  </si>
+  <si>
+    <t>1751870191-41</t>
+  </si>
+  <si>
+    <t>1751870191-42</t>
+  </si>
+  <si>
+    <t>1751870191-43</t>
+  </si>
+  <si>
+    <t>1751870191-44</t>
+  </si>
+  <si>
+    <t>1751870191-45</t>
+  </si>
+  <si>
+    <t>1751870191-46</t>
+  </si>
+  <si>
+    <t>1751870191-47</t>
+  </si>
+  <si>
+    <t>1751870191-48</t>
+  </si>
+  <si>
+    <t>1751870191-49</t>
+  </si>
+  <si>
+    <t>1751870191-50</t>
+  </si>
+  <si>
+    <t>1751870191-51</t>
+  </si>
+  <si>
+    <t>1751870191-52</t>
+  </si>
+  <si>
+    <t>1751870191-53</t>
+  </si>
+  <si>
+    <t>1751870191-54</t>
+  </si>
+  <si>
+    <t>1751870191-55</t>
+  </si>
+  <si>
+    <t>1751870191-56</t>
+  </si>
+  <si>
+    <t>1751870191-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
+  </si>
+  <si>
+    <t>Lost but Not Forgotten</t>
   </si>
   <si>
     <t>Phantom Pings</t>
@@ -696,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +736,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -742,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -753,10 +759,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -765,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -776,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -788,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -799,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -811,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -822,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -834,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -845,10 +851,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -857,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -868,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -880,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -891,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -903,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -914,10 +920,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -926,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -937,10 +943,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -949,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -960,10 +966,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -972,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -983,10 +989,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -995,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1006,10 +1012,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1018,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1029,10 +1035,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1041,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1052,10 +1058,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1064,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1075,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1087,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1098,10 +1104,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1110,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1121,10 +1127,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1133,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1144,10 +1150,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>50</v>
@@ -1167,10 +1173,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1179,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>50</v>
@@ -1190,10 +1196,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1202,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1213,10 +1219,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1225,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1236,10 +1242,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1248,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1259,10 +1265,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1271,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1282,10 +1288,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1294,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1305,10 +1311,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1317,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1328,10 +1334,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1340,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1351,10 +1357,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>50</v>
@@ -1374,10 +1380,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1386,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>50</v>
@@ -1397,10 +1403,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1409,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1420,10 +1426,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1432,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1443,10 +1449,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1455,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1466,10 +1472,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1478,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1489,10 +1495,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1501,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1512,10 +1518,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1524,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1535,10 +1541,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1547,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G37">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1558,10 +1564,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1570,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1581,10 +1587,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1593,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>50</v>
@@ -1604,10 +1610,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1616,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G40">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1627,10 +1633,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1639,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1650,10 +1656,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1662,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1673,10 +1679,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1685,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1696,10 +1702,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1708,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1719,10 +1725,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1731,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G45">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1742,10 +1748,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1754,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1765,10 +1771,10 @@
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1777,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1788,10 +1794,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1800,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G48">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1811,21 +1817,44 @@
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>33</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>50</v>
       </c>
     </row>
@@ -1879,6 +1908,7 @@
     <hyperlink ref="B47" r:id="rId46"/>
     <hyperlink ref="B48" r:id="rId47"/>
     <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1751870191-9</t>
-  </si>
-  <si>
-    <t>1751870191-10</t>
-  </si>
-  <si>
-    <t>1751870191-11</t>
-  </si>
-  <si>
-    <t>1751870191-12</t>
-  </si>
-  <si>
-    <t>1751870191-13</t>
-  </si>
-  <si>
-    <t>1751870191-14</t>
-  </si>
-  <si>
-    <t>1751870191-15</t>
-  </si>
-  <si>
-    <t>1751870191-16</t>
-  </si>
-  <si>
-    <t>1751870191-17</t>
-  </si>
-  <si>
-    <t>1751870191-18</t>
-  </si>
-  <si>
-    <t>1751870191-19</t>
-  </si>
-  <si>
-    <t>1751870191-20</t>
-  </si>
-  <si>
-    <t>1751870191-21</t>
-  </si>
-  <si>
-    <t>1751870191-22</t>
-  </si>
-  <si>
-    <t>1751870191-23</t>
-  </si>
-  <si>
-    <t>1751870191-24</t>
-  </si>
-  <si>
-    <t>1751870191-25</t>
-  </si>
-  <si>
-    <t>1751870191-26</t>
-  </si>
-  <si>
-    <t>1751870191-27</t>
-  </si>
-  <si>
-    <t>1751870191-28</t>
-  </si>
-  <si>
-    <t>1751870191-29</t>
-  </si>
-  <si>
-    <t>1751870191-30</t>
-  </si>
-  <si>
-    <t>1751870191-31</t>
-  </si>
-  <si>
-    <t>1751870191-32</t>
-  </si>
-  <si>
-    <t>1751870191-33</t>
-  </si>
-  <si>
-    <t>1751870191-34</t>
-  </si>
-  <si>
-    <t>1751870191-35</t>
-  </si>
-  <si>
-    <t>1751870191-36</t>
-  </si>
-  <si>
-    <t>1751870191-37</t>
-  </si>
-  <si>
-    <t>1751870191-38</t>
-  </si>
-  <si>
-    <t>1751870191-39</t>
-  </si>
-  <si>
-    <t>1751870191-40</t>
-  </si>
-  <si>
-    <t>1751870191-41</t>
-  </si>
-  <si>
-    <t>1751870191-42</t>
-  </si>
-  <si>
-    <t>1751870191-43</t>
-  </si>
-  <si>
-    <t>1751870191-44</t>
-  </si>
-  <si>
-    <t>1751870191-45</t>
-  </si>
-  <si>
-    <t>1751870191-46</t>
-  </si>
-  <si>
-    <t>1751870191-47</t>
-  </si>
-  <si>
-    <t>1751870191-48</t>
-  </si>
-  <si>
-    <t>1751870191-49</t>
-  </si>
-  <si>
-    <t>1751870191-50</t>
-  </si>
-  <si>
-    <t>1751870191-51</t>
-  </si>
-  <si>
-    <t>1751870191-52</t>
-  </si>
-  <si>
-    <t>1751870191-53</t>
-  </si>
-  <si>
-    <t>1751870191-54</t>
-  </si>
-  <si>
-    <t>1751870191-55</t>
-  </si>
-  <si>
-    <t>1751870191-56</t>
-  </si>
-  <si>
-    <t>1751870191-57</t>
+    <t>1751963151-9</t>
+  </si>
+  <si>
+    <t>1751963151-10</t>
+  </si>
+  <si>
+    <t>1751963151-11</t>
+  </si>
+  <si>
+    <t>1751963151-12</t>
+  </si>
+  <si>
+    <t>1751963151-13</t>
+  </si>
+  <si>
+    <t>1751963151-14</t>
+  </si>
+  <si>
+    <t>1751963151-15</t>
+  </si>
+  <si>
+    <t>1751963151-16</t>
+  </si>
+  <si>
+    <t>1751963151-17</t>
+  </si>
+  <si>
+    <t>1751963151-18</t>
+  </si>
+  <si>
+    <t>1751963151-19</t>
+  </si>
+  <si>
+    <t>1751963151-20</t>
+  </si>
+  <si>
+    <t>1751963151-21</t>
+  </si>
+  <si>
+    <t>1751963151-22</t>
+  </si>
+  <si>
+    <t>1751963151-23</t>
+  </si>
+  <si>
+    <t>1751963151-24</t>
+  </si>
+  <si>
+    <t>1751963151-25</t>
+  </si>
+  <si>
+    <t>1751963151-26</t>
+  </si>
+  <si>
+    <t>1751963151-27</t>
+  </si>
+  <si>
+    <t>1751963151-28</t>
+  </si>
+  <si>
+    <t>1751963151-29</t>
+  </si>
+  <si>
+    <t>1751963151-30</t>
+  </si>
+  <si>
+    <t>1751963151-31</t>
+  </si>
+  <si>
+    <t>1751963151-32</t>
+  </si>
+  <si>
+    <t>1751963151-33</t>
+  </si>
+  <si>
+    <t>1751963151-34</t>
+  </si>
+  <si>
+    <t>1751963151-35</t>
+  </si>
+  <si>
+    <t>1751963151-36</t>
+  </si>
+  <si>
+    <t>1751963151-37</t>
+  </si>
+  <si>
+    <t>1751963151-38</t>
+  </si>
+  <si>
+    <t>1751963151-39</t>
+  </si>
+  <si>
+    <t>1751963151-40</t>
+  </si>
+  <si>
+    <t>1751963151-41</t>
+  </si>
+  <si>
+    <t>1751963151-42</t>
+  </si>
+  <si>
+    <t>1751963151-43</t>
+  </si>
+  <si>
+    <t>1751963151-44</t>
+  </si>
+  <si>
+    <t>1751963151-45</t>
+  </si>
+  <si>
+    <t>1751963151-46</t>
+  </si>
+  <si>
+    <t>1751963151-47</t>
+  </si>
+  <si>
+    <t>1751963151-48</t>
+  </si>
+  <si>
+    <t>1751963151-49</t>
+  </si>
+  <si>
+    <t>1751963151-50</t>
+  </si>
+  <si>
+    <t>1751963151-51</t>
+  </si>
+  <si>
+    <t>1751963151-52</t>
+  </si>
+  <si>
+    <t>1751963151-53</t>
+  </si>
+  <si>
+    <t>1751963151-54</t>
+  </si>
+  <si>
+    <t>1751963151-55</t>
+  </si>
+  <si>
+    <t>1751963151-56</t>
+  </si>
+  <si>
+    <t>1751963151-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>500</v>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1751963151-9</t>
-  </si>
-  <si>
-    <t>1751963151-10</t>
-  </si>
-  <si>
-    <t>1751963151-11</t>
-  </si>
-  <si>
-    <t>1751963151-12</t>
-  </si>
-  <si>
-    <t>1751963151-13</t>
-  </si>
-  <si>
-    <t>1751963151-14</t>
-  </si>
-  <si>
-    <t>1751963151-15</t>
-  </si>
-  <si>
-    <t>1751963151-16</t>
-  </si>
-  <si>
-    <t>1751963151-17</t>
-  </si>
-  <si>
-    <t>1751963151-18</t>
-  </si>
-  <si>
-    <t>1751963151-19</t>
-  </si>
-  <si>
-    <t>1751963151-20</t>
-  </si>
-  <si>
-    <t>1751963151-21</t>
-  </si>
-  <si>
-    <t>1751963151-22</t>
-  </si>
-  <si>
-    <t>1751963151-23</t>
-  </si>
-  <si>
-    <t>1751963151-24</t>
-  </si>
-  <si>
-    <t>1751963151-25</t>
-  </si>
-  <si>
-    <t>1751963151-26</t>
-  </si>
-  <si>
-    <t>1751963151-27</t>
-  </si>
-  <si>
-    <t>1751963151-28</t>
-  </si>
-  <si>
-    <t>1751963151-29</t>
-  </si>
-  <si>
-    <t>1751963151-30</t>
-  </si>
-  <si>
-    <t>1751963151-31</t>
-  </si>
-  <si>
-    <t>1751963151-32</t>
-  </si>
-  <si>
-    <t>1751963151-33</t>
-  </si>
-  <si>
-    <t>1751963151-34</t>
-  </si>
-  <si>
-    <t>1751963151-35</t>
-  </si>
-  <si>
-    <t>1751963151-36</t>
-  </si>
-  <si>
-    <t>1751963151-37</t>
-  </si>
-  <si>
-    <t>1751963151-38</t>
-  </si>
-  <si>
-    <t>1751963151-39</t>
-  </si>
-  <si>
-    <t>1751963151-40</t>
-  </si>
-  <si>
-    <t>1751963151-41</t>
-  </si>
-  <si>
-    <t>1751963151-42</t>
-  </si>
-  <si>
-    <t>1751963151-43</t>
-  </si>
-  <si>
-    <t>1751963151-44</t>
-  </si>
-  <si>
-    <t>1751963151-45</t>
-  </si>
-  <si>
-    <t>1751963151-46</t>
-  </si>
-  <si>
-    <t>1751963151-47</t>
-  </si>
-  <si>
-    <t>1751963151-48</t>
-  </si>
-  <si>
-    <t>1751963151-49</t>
-  </si>
-  <si>
-    <t>1751963151-50</t>
-  </si>
-  <si>
-    <t>1751963151-51</t>
-  </si>
-  <si>
-    <t>1751963151-52</t>
-  </si>
-  <si>
-    <t>1751963151-53</t>
-  </si>
-  <si>
-    <t>1751963151-54</t>
-  </si>
-  <si>
-    <t>1751963151-55</t>
-  </si>
-  <si>
-    <t>1751963151-56</t>
-  </si>
-  <si>
-    <t>1751963151-57</t>
+    <t>1752560755-9</t>
+  </si>
+  <si>
+    <t>1752560755-10</t>
+  </si>
+  <si>
+    <t>1752560755-11</t>
+  </si>
+  <si>
+    <t>1752560755-12</t>
+  </si>
+  <si>
+    <t>1752560755-13</t>
+  </si>
+  <si>
+    <t>1752560755-14</t>
+  </si>
+  <si>
+    <t>1752560755-15</t>
+  </si>
+  <si>
+    <t>1752560755-16</t>
+  </si>
+  <si>
+    <t>1752560755-17</t>
+  </si>
+  <si>
+    <t>1752560755-18</t>
+  </si>
+  <si>
+    <t>1752560755-19</t>
+  </si>
+  <si>
+    <t>1752560755-20</t>
+  </si>
+  <si>
+    <t>1752560755-21</t>
+  </si>
+  <si>
+    <t>1752560755-22</t>
+  </si>
+  <si>
+    <t>1752560755-23</t>
+  </si>
+  <si>
+    <t>1752560755-24</t>
+  </si>
+  <si>
+    <t>1752560755-25</t>
+  </si>
+  <si>
+    <t>1752560755-26</t>
+  </si>
+  <si>
+    <t>1752560755-27</t>
+  </si>
+  <si>
+    <t>1752560755-28</t>
+  </si>
+  <si>
+    <t>1752560755-29</t>
+  </si>
+  <si>
+    <t>1752560755-30</t>
+  </si>
+  <si>
+    <t>1752560755-31</t>
+  </si>
+  <si>
+    <t>1752560755-32</t>
+  </si>
+  <si>
+    <t>1752560755-33</t>
+  </si>
+  <si>
+    <t>1752560755-34</t>
+  </si>
+  <si>
+    <t>1752560755-35</t>
+  </si>
+  <si>
+    <t>1752560755-36</t>
+  </si>
+  <si>
+    <t>1752560755-37</t>
+  </si>
+  <si>
+    <t>1752560755-38</t>
+  </si>
+  <si>
+    <t>1752560755-39</t>
+  </si>
+  <si>
+    <t>1752560755-40</t>
+  </si>
+  <si>
+    <t>1752560755-41</t>
+  </si>
+  <si>
+    <t>1752560755-42</t>
+  </si>
+  <si>
+    <t>1752560755-43</t>
+  </si>
+  <si>
+    <t>1752560755-44</t>
+  </si>
+  <si>
+    <t>1752560755-45</t>
+  </si>
+  <si>
+    <t>1752560755-46</t>
+  </si>
+  <si>
+    <t>1752560755-47</t>
+  </si>
+  <si>
+    <t>1752560755-48</t>
+  </si>
+  <si>
+    <t>1752560755-49</t>
+  </si>
+  <si>
+    <t>1752560755-50</t>
+  </si>
+  <si>
+    <t>1752560755-51</t>
+  </si>
+  <si>
+    <t>1752560755-52</t>
+  </si>
+  <si>
+    <t>1752560755-53</t>
+  </si>
+  <si>
+    <t>1752560755-54</t>
+  </si>
+  <si>
+    <t>1752560755-55</t>
+  </si>
+  <si>
+    <t>1752560755-56</t>
+  </si>
+  <si>
+    <t>1752560755-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752560755-9</t>
-  </si>
-  <si>
-    <t>1752560755-10</t>
-  </si>
-  <si>
-    <t>1752560755-11</t>
-  </si>
-  <si>
-    <t>1752560755-12</t>
-  </si>
-  <si>
-    <t>1752560755-13</t>
-  </si>
-  <si>
-    <t>1752560755-14</t>
-  </si>
-  <si>
-    <t>1752560755-15</t>
-  </si>
-  <si>
-    <t>1752560755-16</t>
-  </si>
-  <si>
-    <t>1752560755-17</t>
-  </si>
-  <si>
-    <t>1752560755-18</t>
-  </si>
-  <si>
-    <t>1752560755-19</t>
-  </si>
-  <si>
-    <t>1752560755-20</t>
-  </si>
-  <si>
-    <t>1752560755-21</t>
-  </si>
-  <si>
-    <t>1752560755-22</t>
-  </si>
-  <si>
-    <t>1752560755-23</t>
-  </si>
-  <si>
-    <t>1752560755-24</t>
-  </si>
-  <si>
-    <t>1752560755-25</t>
-  </si>
-  <si>
-    <t>1752560755-26</t>
-  </si>
-  <si>
-    <t>1752560755-27</t>
-  </si>
-  <si>
-    <t>1752560755-28</t>
-  </si>
-  <si>
-    <t>1752560755-29</t>
-  </si>
-  <si>
-    <t>1752560755-30</t>
-  </si>
-  <si>
-    <t>1752560755-31</t>
-  </si>
-  <si>
-    <t>1752560755-32</t>
-  </si>
-  <si>
-    <t>1752560755-33</t>
-  </si>
-  <si>
-    <t>1752560755-34</t>
-  </si>
-  <si>
-    <t>1752560755-35</t>
-  </si>
-  <si>
-    <t>1752560755-36</t>
-  </si>
-  <si>
-    <t>1752560755-37</t>
-  </si>
-  <si>
-    <t>1752560755-38</t>
-  </si>
-  <si>
-    <t>1752560755-39</t>
-  </si>
-  <si>
-    <t>1752560755-40</t>
-  </si>
-  <si>
-    <t>1752560755-41</t>
-  </si>
-  <si>
-    <t>1752560755-42</t>
-  </si>
-  <si>
-    <t>1752560755-43</t>
-  </si>
-  <si>
-    <t>1752560755-44</t>
-  </si>
-  <si>
-    <t>1752560755-45</t>
-  </si>
-  <si>
-    <t>1752560755-46</t>
-  </si>
-  <si>
-    <t>1752560755-47</t>
-  </si>
-  <si>
-    <t>1752560755-48</t>
-  </si>
-  <si>
-    <t>1752560755-49</t>
-  </si>
-  <si>
-    <t>1752560755-50</t>
-  </si>
-  <si>
-    <t>1752560755-51</t>
-  </si>
-  <si>
-    <t>1752560755-52</t>
-  </si>
-  <si>
-    <t>1752560755-53</t>
-  </si>
-  <si>
-    <t>1752560755-54</t>
-  </si>
-  <si>
-    <t>1752560755-55</t>
-  </si>
-  <si>
-    <t>1752560755-56</t>
-  </si>
-  <si>
-    <t>1752560755-57</t>
+    <t>1752680082-9</t>
+  </si>
+  <si>
+    <t>1752680082-10</t>
+  </si>
+  <si>
+    <t>1752680082-11</t>
+  </si>
+  <si>
+    <t>1752680082-12</t>
+  </si>
+  <si>
+    <t>1752680082-13</t>
+  </si>
+  <si>
+    <t>1752680082-14</t>
+  </si>
+  <si>
+    <t>1752680082-15</t>
+  </si>
+  <si>
+    <t>1752680082-16</t>
+  </si>
+  <si>
+    <t>1752680082-17</t>
+  </si>
+  <si>
+    <t>1752680082-18</t>
+  </si>
+  <si>
+    <t>1752680082-19</t>
+  </si>
+  <si>
+    <t>1752680082-20</t>
+  </si>
+  <si>
+    <t>1752680082-21</t>
+  </si>
+  <si>
+    <t>1752680082-22</t>
+  </si>
+  <si>
+    <t>1752680082-23</t>
+  </si>
+  <si>
+    <t>1752680082-24</t>
+  </si>
+  <si>
+    <t>1752680082-25</t>
+  </si>
+  <si>
+    <t>1752680082-26</t>
+  </si>
+  <si>
+    <t>1752680082-27</t>
+  </si>
+  <si>
+    <t>1752680082-28</t>
+  </si>
+  <si>
+    <t>1752680082-29</t>
+  </si>
+  <si>
+    <t>1752680082-30</t>
+  </si>
+  <si>
+    <t>1752680082-31</t>
+  </si>
+  <si>
+    <t>1752680082-32</t>
+  </si>
+  <si>
+    <t>1752680082-33</t>
+  </si>
+  <si>
+    <t>1752680082-34</t>
+  </si>
+  <si>
+    <t>1752680082-35</t>
+  </si>
+  <si>
+    <t>1752680082-36</t>
+  </si>
+  <si>
+    <t>1752680082-37</t>
+  </si>
+  <si>
+    <t>1752680082-38</t>
+  </si>
+  <si>
+    <t>1752680082-39</t>
+  </si>
+  <si>
+    <t>1752680082-40</t>
+  </si>
+  <si>
+    <t>1752680082-41</t>
+  </si>
+  <si>
+    <t>1752680082-42</t>
+  </si>
+  <si>
+    <t>1752680082-43</t>
+  </si>
+  <si>
+    <t>1752680082-44</t>
+  </si>
+  <si>
+    <t>1752680082-45</t>
+  </si>
+  <si>
+    <t>1752680082-46</t>
+  </si>
+  <si>
+    <t>1752680082-47</t>
+  </si>
+  <si>
+    <t>1752680082-48</t>
+  </si>
+  <si>
+    <t>1752680082-49</t>
+  </si>
+  <si>
+    <t>1752680082-50</t>
+  </si>
+  <si>
+    <t>1752680082-51</t>
+  </si>
+  <si>
+    <t>1752680082-52</t>
+  </si>
+  <si>
+    <t>1752680082-53</t>
+  </si>
+  <si>
+    <t>1752680082-54</t>
+  </si>
+  <si>
+    <t>1752680082-55</t>
+  </si>
+  <si>
+    <t>1752680082-56</t>
+  </si>
+  <si>
+    <t>1752680082-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752680082-9</t>
-  </si>
-  <si>
-    <t>1752680082-10</t>
-  </si>
-  <si>
-    <t>1752680082-11</t>
-  </si>
-  <si>
-    <t>1752680082-12</t>
-  </si>
-  <si>
-    <t>1752680082-13</t>
-  </si>
-  <si>
-    <t>1752680082-14</t>
-  </si>
-  <si>
-    <t>1752680082-15</t>
-  </si>
-  <si>
-    <t>1752680082-16</t>
-  </si>
-  <si>
-    <t>1752680082-17</t>
-  </si>
-  <si>
-    <t>1752680082-18</t>
-  </si>
-  <si>
-    <t>1752680082-19</t>
-  </si>
-  <si>
-    <t>1752680082-20</t>
-  </si>
-  <si>
-    <t>1752680082-21</t>
-  </si>
-  <si>
-    <t>1752680082-22</t>
-  </si>
-  <si>
-    <t>1752680082-23</t>
-  </si>
-  <si>
-    <t>1752680082-24</t>
-  </si>
-  <si>
-    <t>1752680082-25</t>
-  </si>
-  <si>
-    <t>1752680082-26</t>
-  </si>
-  <si>
-    <t>1752680082-27</t>
-  </si>
-  <si>
-    <t>1752680082-28</t>
-  </si>
-  <si>
-    <t>1752680082-29</t>
-  </si>
-  <si>
-    <t>1752680082-30</t>
-  </si>
-  <si>
-    <t>1752680082-31</t>
-  </si>
-  <si>
-    <t>1752680082-32</t>
-  </si>
-  <si>
-    <t>1752680082-33</t>
-  </si>
-  <si>
-    <t>1752680082-34</t>
-  </si>
-  <si>
-    <t>1752680082-35</t>
-  </si>
-  <si>
-    <t>1752680082-36</t>
-  </si>
-  <si>
-    <t>1752680082-37</t>
-  </si>
-  <si>
-    <t>1752680082-38</t>
-  </si>
-  <si>
-    <t>1752680082-39</t>
-  </si>
-  <si>
-    <t>1752680082-40</t>
-  </si>
-  <si>
-    <t>1752680082-41</t>
-  </si>
-  <si>
-    <t>1752680082-42</t>
-  </si>
-  <si>
-    <t>1752680082-43</t>
-  </si>
-  <si>
-    <t>1752680082-44</t>
-  </si>
-  <si>
-    <t>1752680082-45</t>
-  </si>
-  <si>
-    <t>1752680082-46</t>
-  </si>
-  <si>
-    <t>1752680082-47</t>
-  </si>
-  <si>
-    <t>1752680082-48</t>
-  </si>
-  <si>
-    <t>1752680082-49</t>
-  </si>
-  <si>
-    <t>1752680082-50</t>
-  </si>
-  <si>
-    <t>1752680082-51</t>
-  </si>
-  <si>
-    <t>1752680082-52</t>
-  </si>
-  <si>
-    <t>1752680082-53</t>
-  </si>
-  <si>
-    <t>1752680082-54</t>
-  </si>
-  <si>
-    <t>1752680082-55</t>
-  </si>
-  <si>
-    <t>1752680082-56</t>
-  </si>
-  <si>
-    <t>1752680082-57</t>
+    <t>1752683450-9</t>
+  </si>
+  <si>
+    <t>1752683450-10</t>
+  </si>
+  <si>
+    <t>1752683450-11</t>
+  </si>
+  <si>
+    <t>1752683450-12</t>
+  </si>
+  <si>
+    <t>1752683450-13</t>
+  </si>
+  <si>
+    <t>1752683450-14</t>
+  </si>
+  <si>
+    <t>1752683450-15</t>
+  </si>
+  <si>
+    <t>1752683450-16</t>
+  </si>
+  <si>
+    <t>1752683450-17</t>
+  </si>
+  <si>
+    <t>1752683450-18</t>
+  </si>
+  <si>
+    <t>1752683450-19</t>
+  </si>
+  <si>
+    <t>1752683450-20</t>
+  </si>
+  <si>
+    <t>1752683450-21</t>
+  </si>
+  <si>
+    <t>1752683450-22</t>
+  </si>
+  <si>
+    <t>1752683450-23</t>
+  </si>
+  <si>
+    <t>1752683450-24</t>
+  </si>
+  <si>
+    <t>1752683450-25</t>
+  </si>
+  <si>
+    <t>1752683450-26</t>
+  </si>
+  <si>
+    <t>1752683450-27</t>
+  </si>
+  <si>
+    <t>1752683450-28</t>
+  </si>
+  <si>
+    <t>1752683450-29</t>
+  </si>
+  <si>
+    <t>1752683450-30</t>
+  </si>
+  <si>
+    <t>1752683450-31</t>
+  </si>
+  <si>
+    <t>1752683450-32</t>
+  </si>
+  <si>
+    <t>1752683450-33</t>
+  </si>
+  <si>
+    <t>1752683450-34</t>
+  </si>
+  <si>
+    <t>1752683450-35</t>
+  </si>
+  <si>
+    <t>1752683450-36</t>
+  </si>
+  <si>
+    <t>1752683450-37</t>
+  </si>
+  <si>
+    <t>1752683450-38</t>
+  </si>
+  <si>
+    <t>1752683450-39</t>
+  </si>
+  <si>
+    <t>1752683450-40</t>
+  </si>
+  <si>
+    <t>1752683450-41</t>
+  </si>
+  <si>
+    <t>1752683450-42</t>
+  </si>
+  <si>
+    <t>1752683450-43</t>
+  </si>
+  <si>
+    <t>1752683450-44</t>
+  </si>
+  <si>
+    <t>1752683450-45</t>
+  </si>
+  <si>
+    <t>1752683450-46</t>
+  </si>
+  <si>
+    <t>1752683450-47</t>
+  </si>
+  <si>
+    <t>1752683450-48</t>
+  </si>
+  <si>
+    <t>1752683450-49</t>
+  </si>
+  <si>
+    <t>1752683450-50</t>
+  </si>
+  <si>
+    <t>1752683450-51</t>
+  </si>
+  <si>
+    <t>1752683450-52</t>
+  </si>
+  <si>
+    <t>1752683450-53</t>
+  </si>
+  <si>
+    <t>1752683450-54</t>
+  </si>
+  <si>
+    <t>1752683450-55</t>
+  </si>
+  <si>
+    <t>1752683450-56</t>
+  </si>
+  <si>
+    <t>1752683450-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752683450-9</t>
-  </si>
-  <si>
-    <t>1752683450-10</t>
-  </si>
-  <si>
-    <t>1752683450-11</t>
-  </si>
-  <si>
-    <t>1752683450-12</t>
-  </si>
-  <si>
-    <t>1752683450-13</t>
-  </si>
-  <si>
-    <t>1752683450-14</t>
-  </si>
-  <si>
-    <t>1752683450-15</t>
-  </si>
-  <si>
-    <t>1752683450-16</t>
-  </si>
-  <si>
-    <t>1752683450-17</t>
-  </si>
-  <si>
-    <t>1752683450-18</t>
-  </si>
-  <si>
-    <t>1752683450-19</t>
-  </si>
-  <si>
-    <t>1752683450-20</t>
-  </si>
-  <si>
-    <t>1752683450-21</t>
-  </si>
-  <si>
-    <t>1752683450-22</t>
-  </si>
-  <si>
-    <t>1752683450-23</t>
-  </si>
-  <si>
-    <t>1752683450-24</t>
-  </si>
-  <si>
-    <t>1752683450-25</t>
-  </si>
-  <si>
-    <t>1752683450-26</t>
-  </si>
-  <si>
-    <t>1752683450-27</t>
-  </si>
-  <si>
-    <t>1752683450-28</t>
-  </si>
-  <si>
-    <t>1752683450-29</t>
-  </si>
-  <si>
-    <t>1752683450-30</t>
-  </si>
-  <si>
-    <t>1752683450-31</t>
-  </si>
-  <si>
-    <t>1752683450-32</t>
-  </si>
-  <si>
-    <t>1752683450-33</t>
-  </si>
-  <si>
-    <t>1752683450-34</t>
-  </si>
-  <si>
-    <t>1752683450-35</t>
-  </si>
-  <si>
-    <t>1752683450-36</t>
-  </si>
-  <si>
-    <t>1752683450-37</t>
-  </si>
-  <si>
-    <t>1752683450-38</t>
-  </si>
-  <si>
-    <t>1752683450-39</t>
-  </si>
-  <si>
-    <t>1752683450-40</t>
-  </si>
-  <si>
-    <t>1752683450-41</t>
-  </si>
-  <si>
-    <t>1752683450-42</t>
-  </si>
-  <si>
-    <t>1752683450-43</t>
-  </si>
-  <si>
-    <t>1752683450-44</t>
-  </si>
-  <si>
-    <t>1752683450-45</t>
-  </si>
-  <si>
-    <t>1752683450-46</t>
-  </si>
-  <si>
-    <t>1752683450-47</t>
-  </si>
-  <si>
-    <t>1752683450-48</t>
-  </si>
-  <si>
-    <t>1752683450-49</t>
-  </si>
-  <si>
-    <t>1752683450-50</t>
-  </si>
-  <si>
-    <t>1752683450-51</t>
-  </si>
-  <si>
-    <t>1752683450-52</t>
-  </si>
-  <si>
-    <t>1752683450-53</t>
-  </si>
-  <si>
-    <t>1752683450-54</t>
-  </si>
-  <si>
-    <t>1752683450-55</t>
-  </si>
-  <si>
-    <t>1752683450-56</t>
-  </si>
-  <si>
-    <t>1752683450-57</t>
+    <t>1752683686-9</t>
+  </si>
+  <si>
+    <t>1752683686-10</t>
+  </si>
+  <si>
+    <t>1752683686-11</t>
+  </si>
+  <si>
+    <t>1752683686-12</t>
+  </si>
+  <si>
+    <t>1752683686-13</t>
+  </si>
+  <si>
+    <t>1752683686-14</t>
+  </si>
+  <si>
+    <t>1752683686-15</t>
+  </si>
+  <si>
+    <t>1752683686-16</t>
+  </si>
+  <si>
+    <t>1752683686-17</t>
+  </si>
+  <si>
+    <t>1752683686-18</t>
+  </si>
+  <si>
+    <t>1752683686-19</t>
+  </si>
+  <si>
+    <t>1752683686-20</t>
+  </si>
+  <si>
+    <t>1752683686-21</t>
+  </si>
+  <si>
+    <t>1752683686-22</t>
+  </si>
+  <si>
+    <t>1752683686-23</t>
+  </si>
+  <si>
+    <t>1752683686-24</t>
+  </si>
+  <si>
+    <t>1752683686-25</t>
+  </si>
+  <si>
+    <t>1752683686-26</t>
+  </si>
+  <si>
+    <t>1752683686-27</t>
+  </si>
+  <si>
+    <t>1752683686-28</t>
+  </si>
+  <si>
+    <t>1752683686-29</t>
+  </si>
+  <si>
+    <t>1752683686-30</t>
+  </si>
+  <si>
+    <t>1752683686-31</t>
+  </si>
+  <si>
+    <t>1752683686-32</t>
+  </si>
+  <si>
+    <t>1752683686-33</t>
+  </si>
+  <si>
+    <t>1752683686-34</t>
+  </si>
+  <si>
+    <t>1752683686-35</t>
+  </si>
+  <si>
+    <t>1752683686-36</t>
+  </si>
+  <si>
+    <t>1752683686-37</t>
+  </si>
+  <si>
+    <t>1752683686-38</t>
+  </si>
+  <si>
+    <t>1752683686-39</t>
+  </si>
+  <si>
+    <t>1752683686-40</t>
+  </si>
+  <si>
+    <t>1752683686-41</t>
+  </si>
+  <si>
+    <t>1752683686-42</t>
+  </si>
+  <si>
+    <t>1752683686-43</t>
+  </si>
+  <si>
+    <t>1752683686-44</t>
+  </si>
+  <si>
+    <t>1752683686-45</t>
+  </si>
+  <si>
+    <t>1752683686-46</t>
+  </si>
+  <si>
+    <t>1752683686-47</t>
+  </si>
+  <si>
+    <t>1752683686-48</t>
+  </si>
+  <si>
+    <t>1752683686-49</t>
+  </si>
+  <si>
+    <t>1752683686-50</t>
+  </si>
+  <si>
+    <t>1752683686-51</t>
+  </si>
+  <si>
+    <t>1752683686-52</t>
+  </si>
+  <si>
+    <t>1752683686-53</t>
+  </si>
+  <si>
+    <t>1752683686-54</t>
+  </si>
+  <si>
+    <t>1752683686-55</t>
+  </si>
+  <si>
+    <t>1752683686-56</t>
+  </si>
+  <si>
+    <t>1752683686-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752683686-9</t>
-  </si>
-  <si>
-    <t>1752683686-10</t>
-  </si>
-  <si>
-    <t>1752683686-11</t>
-  </si>
-  <si>
-    <t>1752683686-12</t>
-  </si>
-  <si>
-    <t>1752683686-13</t>
-  </si>
-  <si>
-    <t>1752683686-14</t>
-  </si>
-  <si>
-    <t>1752683686-15</t>
-  </si>
-  <si>
-    <t>1752683686-16</t>
-  </si>
-  <si>
-    <t>1752683686-17</t>
-  </si>
-  <si>
-    <t>1752683686-18</t>
-  </si>
-  <si>
-    <t>1752683686-19</t>
-  </si>
-  <si>
-    <t>1752683686-20</t>
-  </si>
-  <si>
-    <t>1752683686-21</t>
-  </si>
-  <si>
-    <t>1752683686-22</t>
-  </si>
-  <si>
-    <t>1752683686-23</t>
-  </si>
-  <si>
-    <t>1752683686-24</t>
-  </si>
-  <si>
-    <t>1752683686-25</t>
-  </si>
-  <si>
-    <t>1752683686-26</t>
-  </si>
-  <si>
-    <t>1752683686-27</t>
-  </si>
-  <si>
-    <t>1752683686-28</t>
-  </si>
-  <si>
-    <t>1752683686-29</t>
-  </si>
-  <si>
-    <t>1752683686-30</t>
-  </si>
-  <si>
-    <t>1752683686-31</t>
-  </si>
-  <si>
-    <t>1752683686-32</t>
-  </si>
-  <si>
-    <t>1752683686-33</t>
-  </si>
-  <si>
-    <t>1752683686-34</t>
-  </si>
-  <si>
-    <t>1752683686-35</t>
-  </si>
-  <si>
-    <t>1752683686-36</t>
-  </si>
-  <si>
-    <t>1752683686-37</t>
-  </si>
-  <si>
-    <t>1752683686-38</t>
-  </si>
-  <si>
-    <t>1752683686-39</t>
-  </si>
-  <si>
-    <t>1752683686-40</t>
-  </si>
-  <si>
-    <t>1752683686-41</t>
-  </si>
-  <si>
-    <t>1752683686-42</t>
-  </si>
-  <si>
-    <t>1752683686-43</t>
-  </si>
-  <si>
-    <t>1752683686-44</t>
-  </si>
-  <si>
-    <t>1752683686-45</t>
-  </si>
-  <si>
-    <t>1752683686-46</t>
-  </si>
-  <si>
-    <t>1752683686-47</t>
-  </si>
-  <si>
-    <t>1752683686-48</t>
-  </si>
-  <si>
-    <t>1752683686-49</t>
-  </si>
-  <si>
-    <t>1752683686-50</t>
-  </si>
-  <si>
-    <t>1752683686-51</t>
-  </si>
-  <si>
-    <t>1752683686-52</t>
-  </si>
-  <si>
-    <t>1752683686-53</t>
-  </si>
-  <si>
-    <t>1752683686-54</t>
-  </si>
-  <si>
-    <t>1752683686-55</t>
-  </si>
-  <si>
-    <t>1752683686-56</t>
-  </si>
-  <si>
-    <t>1752683686-57</t>
+    <t>1752904055-9</t>
+  </si>
+  <si>
+    <t>1752904055-10</t>
+  </si>
+  <si>
+    <t>1752904055-11</t>
+  </si>
+  <si>
+    <t>1752904055-12</t>
+  </si>
+  <si>
+    <t>1752904055-13</t>
+  </si>
+  <si>
+    <t>1752904055-14</t>
+  </si>
+  <si>
+    <t>1752904055-15</t>
+  </si>
+  <si>
+    <t>1752904055-16</t>
+  </si>
+  <si>
+    <t>1752904055-17</t>
+  </si>
+  <si>
+    <t>1752904055-18</t>
+  </si>
+  <si>
+    <t>1752904055-19</t>
+  </si>
+  <si>
+    <t>1752904055-20</t>
+  </si>
+  <si>
+    <t>1752904055-21</t>
+  </si>
+  <si>
+    <t>1752904055-22</t>
+  </si>
+  <si>
+    <t>1752904055-23</t>
+  </si>
+  <si>
+    <t>1752904055-24</t>
+  </si>
+  <si>
+    <t>1752904055-25</t>
+  </si>
+  <si>
+    <t>1752904055-26</t>
+  </si>
+  <si>
+    <t>1752904055-27</t>
+  </si>
+  <si>
+    <t>1752904055-28</t>
+  </si>
+  <si>
+    <t>1752904055-29</t>
+  </si>
+  <si>
+    <t>1752904055-30</t>
+  </si>
+  <si>
+    <t>1752904055-31</t>
+  </si>
+  <si>
+    <t>1752904055-32</t>
+  </si>
+  <si>
+    <t>1752904055-33</t>
+  </si>
+  <si>
+    <t>1752904055-34</t>
+  </si>
+  <si>
+    <t>1752904055-35</t>
+  </si>
+  <si>
+    <t>1752904055-36</t>
+  </si>
+  <si>
+    <t>1752904055-37</t>
+  </si>
+  <si>
+    <t>1752904055-38</t>
+  </si>
+  <si>
+    <t>1752904055-39</t>
+  </si>
+  <si>
+    <t>1752904055-40</t>
+  </si>
+  <si>
+    <t>1752904055-41</t>
+  </si>
+  <si>
+    <t>1752904055-42</t>
+  </si>
+  <si>
+    <t>1752904055-43</t>
+  </si>
+  <si>
+    <t>1752904055-44</t>
+  </si>
+  <si>
+    <t>1752904055-45</t>
+  </si>
+  <si>
+    <t>1752904055-46</t>
+  </si>
+  <si>
+    <t>1752904055-47</t>
+  </si>
+  <si>
+    <t>1752904055-48</t>
+  </si>
+  <si>
+    <t>1752904055-49</t>
+  </si>
+  <si>
+    <t>1752904055-50</t>
+  </si>
+  <si>
+    <t>1752904055-51</t>
+  </si>
+  <si>
+    <t>1752904055-52</t>
+  </si>
+  <si>
+    <t>1752904055-53</t>
+  </si>
+  <si>
+    <t>1752904055-54</t>
+  </si>
+  <si>
+    <t>1752904055-55</t>
+  </si>
+  <si>
+    <t>1752904055-56</t>
+  </si>
+  <si>
+    <t>1752904055-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752904055-9</t>
-  </si>
-  <si>
-    <t>1752904055-10</t>
-  </si>
-  <si>
-    <t>1752904055-11</t>
-  </si>
-  <si>
-    <t>1752904055-12</t>
-  </si>
-  <si>
-    <t>1752904055-13</t>
-  </si>
-  <si>
-    <t>1752904055-14</t>
-  </si>
-  <si>
-    <t>1752904055-15</t>
-  </si>
-  <si>
-    <t>1752904055-16</t>
-  </si>
-  <si>
-    <t>1752904055-17</t>
-  </si>
-  <si>
-    <t>1752904055-18</t>
-  </si>
-  <si>
-    <t>1752904055-19</t>
-  </si>
-  <si>
-    <t>1752904055-20</t>
-  </si>
-  <si>
-    <t>1752904055-21</t>
-  </si>
-  <si>
-    <t>1752904055-22</t>
-  </si>
-  <si>
-    <t>1752904055-23</t>
-  </si>
-  <si>
-    <t>1752904055-24</t>
-  </si>
-  <si>
-    <t>1752904055-25</t>
-  </si>
-  <si>
-    <t>1752904055-26</t>
-  </si>
-  <si>
-    <t>1752904055-27</t>
-  </si>
-  <si>
-    <t>1752904055-28</t>
-  </si>
-  <si>
-    <t>1752904055-29</t>
-  </si>
-  <si>
-    <t>1752904055-30</t>
-  </si>
-  <si>
-    <t>1752904055-31</t>
-  </si>
-  <si>
-    <t>1752904055-32</t>
-  </si>
-  <si>
-    <t>1752904055-33</t>
-  </si>
-  <si>
-    <t>1752904055-34</t>
-  </si>
-  <si>
-    <t>1752904055-35</t>
-  </si>
-  <si>
-    <t>1752904055-36</t>
-  </si>
-  <si>
-    <t>1752904055-37</t>
-  </si>
-  <si>
-    <t>1752904055-38</t>
-  </si>
-  <si>
-    <t>1752904055-39</t>
-  </si>
-  <si>
-    <t>1752904055-40</t>
-  </si>
-  <si>
-    <t>1752904055-41</t>
-  </si>
-  <si>
-    <t>1752904055-42</t>
-  </si>
-  <si>
-    <t>1752904055-43</t>
-  </si>
-  <si>
-    <t>1752904055-44</t>
-  </si>
-  <si>
-    <t>1752904055-45</t>
-  </si>
-  <si>
-    <t>1752904055-46</t>
-  </si>
-  <si>
-    <t>1752904055-47</t>
-  </si>
-  <si>
-    <t>1752904055-48</t>
-  </si>
-  <si>
-    <t>1752904055-49</t>
-  </si>
-  <si>
-    <t>1752904055-50</t>
-  </si>
-  <si>
-    <t>1752904055-51</t>
-  </si>
-  <si>
-    <t>1752904055-52</t>
-  </si>
-  <si>
-    <t>1752904055-53</t>
-  </si>
-  <si>
-    <t>1752904055-54</t>
-  </si>
-  <si>
-    <t>1752904055-55</t>
-  </si>
-  <si>
-    <t>1752904055-56</t>
-  </si>
-  <si>
-    <t>1752904055-57</t>
+    <t>1752904247-9</t>
+  </si>
+  <si>
+    <t>1752904247-10</t>
+  </si>
+  <si>
+    <t>1752904247-11</t>
+  </si>
+  <si>
+    <t>1752904247-12</t>
+  </si>
+  <si>
+    <t>1752904247-13</t>
+  </si>
+  <si>
+    <t>1752904247-14</t>
+  </si>
+  <si>
+    <t>1752904247-15</t>
+  </si>
+  <si>
+    <t>1752904247-16</t>
+  </si>
+  <si>
+    <t>1752904247-17</t>
+  </si>
+  <si>
+    <t>1752904247-18</t>
+  </si>
+  <si>
+    <t>1752904247-19</t>
+  </si>
+  <si>
+    <t>1752904247-20</t>
+  </si>
+  <si>
+    <t>1752904247-21</t>
+  </si>
+  <si>
+    <t>1752904247-22</t>
+  </si>
+  <si>
+    <t>1752904247-23</t>
+  </si>
+  <si>
+    <t>1752904247-24</t>
+  </si>
+  <si>
+    <t>1752904247-25</t>
+  </si>
+  <si>
+    <t>1752904247-26</t>
+  </si>
+  <si>
+    <t>1752904247-27</t>
+  </si>
+  <si>
+    <t>1752904247-28</t>
+  </si>
+  <si>
+    <t>1752904247-29</t>
+  </si>
+  <si>
+    <t>1752904247-30</t>
+  </si>
+  <si>
+    <t>1752904247-31</t>
+  </si>
+  <si>
+    <t>1752904247-32</t>
+  </si>
+  <si>
+    <t>1752904247-33</t>
+  </si>
+  <si>
+    <t>1752904247-34</t>
+  </si>
+  <si>
+    <t>1752904247-35</t>
+  </si>
+  <si>
+    <t>1752904247-36</t>
+  </si>
+  <si>
+    <t>1752904247-37</t>
+  </si>
+  <si>
+    <t>1752904247-38</t>
+  </si>
+  <si>
+    <t>1752904247-39</t>
+  </si>
+  <si>
+    <t>1752904247-40</t>
+  </si>
+  <si>
+    <t>1752904247-41</t>
+  </si>
+  <si>
+    <t>1752904247-42</t>
+  </si>
+  <si>
+    <t>1752904247-43</t>
+  </si>
+  <si>
+    <t>1752904247-44</t>
+  </si>
+  <si>
+    <t>1752904247-45</t>
+  </si>
+  <si>
+    <t>1752904247-46</t>
+  </si>
+  <si>
+    <t>1752904247-47</t>
+  </si>
+  <si>
+    <t>1752904247-48</t>
+  </si>
+  <si>
+    <t>1752904247-49</t>
+  </si>
+  <si>
+    <t>1752904247-50</t>
+  </si>
+  <si>
+    <t>1752904247-51</t>
+  </si>
+  <si>
+    <t>1752904247-52</t>
+  </si>
+  <si>
+    <t>1752904247-53</t>
+  </si>
+  <si>
+    <t>1752904247-54</t>
+  </si>
+  <si>
+    <t>1752904247-55</t>
+  </si>
+  <si>
+    <t>1752904247-56</t>
+  </si>
+  <si>
+    <t>1752904247-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752904247-9</t>
-  </si>
-  <si>
-    <t>1752904247-10</t>
-  </si>
-  <si>
-    <t>1752904247-11</t>
-  </si>
-  <si>
-    <t>1752904247-12</t>
-  </si>
-  <si>
-    <t>1752904247-13</t>
-  </si>
-  <si>
-    <t>1752904247-14</t>
-  </si>
-  <si>
-    <t>1752904247-15</t>
-  </si>
-  <si>
-    <t>1752904247-16</t>
-  </si>
-  <si>
-    <t>1752904247-17</t>
-  </si>
-  <si>
-    <t>1752904247-18</t>
-  </si>
-  <si>
-    <t>1752904247-19</t>
-  </si>
-  <si>
-    <t>1752904247-20</t>
-  </si>
-  <si>
-    <t>1752904247-21</t>
-  </si>
-  <si>
-    <t>1752904247-22</t>
-  </si>
-  <si>
-    <t>1752904247-23</t>
-  </si>
-  <si>
-    <t>1752904247-24</t>
-  </si>
-  <si>
-    <t>1752904247-25</t>
-  </si>
-  <si>
-    <t>1752904247-26</t>
-  </si>
-  <si>
-    <t>1752904247-27</t>
-  </si>
-  <si>
-    <t>1752904247-28</t>
-  </si>
-  <si>
-    <t>1752904247-29</t>
-  </si>
-  <si>
-    <t>1752904247-30</t>
-  </si>
-  <si>
-    <t>1752904247-31</t>
-  </si>
-  <si>
-    <t>1752904247-32</t>
-  </si>
-  <si>
-    <t>1752904247-33</t>
-  </si>
-  <si>
-    <t>1752904247-34</t>
-  </si>
-  <si>
-    <t>1752904247-35</t>
-  </si>
-  <si>
-    <t>1752904247-36</t>
-  </si>
-  <si>
-    <t>1752904247-37</t>
-  </si>
-  <si>
-    <t>1752904247-38</t>
-  </si>
-  <si>
-    <t>1752904247-39</t>
-  </si>
-  <si>
-    <t>1752904247-40</t>
-  </si>
-  <si>
-    <t>1752904247-41</t>
-  </si>
-  <si>
-    <t>1752904247-42</t>
-  </si>
-  <si>
-    <t>1752904247-43</t>
-  </si>
-  <si>
-    <t>1752904247-44</t>
-  </si>
-  <si>
-    <t>1752904247-45</t>
-  </si>
-  <si>
-    <t>1752904247-46</t>
-  </si>
-  <si>
-    <t>1752904247-47</t>
-  </si>
-  <si>
-    <t>1752904247-48</t>
-  </si>
-  <si>
-    <t>1752904247-49</t>
-  </si>
-  <si>
-    <t>1752904247-50</t>
-  </si>
-  <si>
-    <t>1752904247-51</t>
-  </si>
-  <si>
-    <t>1752904247-52</t>
-  </si>
-  <si>
-    <t>1752904247-53</t>
-  </si>
-  <si>
-    <t>1752904247-54</t>
-  </si>
-  <si>
-    <t>1752904247-55</t>
-  </si>
-  <si>
-    <t>1752904247-56</t>
-  </si>
-  <si>
-    <t>1752904247-57</t>
+    <t>1752904586-9</t>
+  </si>
+  <si>
+    <t>1752904586-10</t>
+  </si>
+  <si>
+    <t>1752904586-11</t>
+  </si>
+  <si>
+    <t>1752904586-12</t>
+  </si>
+  <si>
+    <t>1752904586-13</t>
+  </si>
+  <si>
+    <t>1752904586-14</t>
+  </si>
+  <si>
+    <t>1752904586-15</t>
+  </si>
+  <si>
+    <t>1752904586-16</t>
+  </si>
+  <si>
+    <t>1752904586-17</t>
+  </si>
+  <si>
+    <t>1752904586-18</t>
+  </si>
+  <si>
+    <t>1752904586-19</t>
+  </si>
+  <si>
+    <t>1752904586-20</t>
+  </si>
+  <si>
+    <t>1752904586-21</t>
+  </si>
+  <si>
+    <t>1752904586-22</t>
+  </si>
+  <si>
+    <t>1752904586-23</t>
+  </si>
+  <si>
+    <t>1752904586-24</t>
+  </si>
+  <si>
+    <t>1752904586-25</t>
+  </si>
+  <si>
+    <t>1752904586-26</t>
+  </si>
+  <si>
+    <t>1752904586-27</t>
+  </si>
+  <si>
+    <t>1752904586-28</t>
+  </si>
+  <si>
+    <t>1752904586-29</t>
+  </si>
+  <si>
+    <t>1752904586-30</t>
+  </si>
+  <si>
+    <t>1752904586-31</t>
+  </si>
+  <si>
+    <t>1752904586-32</t>
+  </si>
+  <si>
+    <t>1752904586-33</t>
+  </si>
+  <si>
+    <t>1752904586-34</t>
+  </si>
+  <si>
+    <t>1752904586-35</t>
+  </si>
+  <si>
+    <t>1752904586-36</t>
+  </si>
+  <si>
+    <t>1752904586-37</t>
+  </si>
+  <si>
+    <t>1752904586-38</t>
+  </si>
+  <si>
+    <t>1752904586-39</t>
+  </si>
+  <si>
+    <t>1752904586-40</t>
+  </si>
+  <si>
+    <t>1752904586-41</t>
+  </si>
+  <si>
+    <t>1752904586-42</t>
+  </si>
+  <si>
+    <t>1752904586-43</t>
+  </si>
+  <si>
+    <t>1752904586-44</t>
+  </si>
+  <si>
+    <t>1752904586-45</t>
+  </si>
+  <si>
+    <t>1752904586-46</t>
+  </si>
+  <si>
+    <t>1752904586-47</t>
+  </si>
+  <si>
+    <t>1752904586-48</t>
+  </si>
+  <si>
+    <t>1752904586-49</t>
+  </si>
+  <si>
+    <t>1752904586-50</t>
+  </si>
+  <si>
+    <t>1752904586-51</t>
+  </si>
+  <si>
+    <t>1752904586-52</t>
+  </si>
+  <si>
+    <t>1752904586-53</t>
+  </si>
+  <si>
+    <t>1752904586-54</t>
+  </si>
+  <si>
+    <t>1752904586-55</t>
+  </si>
+  <si>
+    <t>1752904586-56</t>
+  </si>
+  <si>
+    <t>1752904586-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,151 +37,151 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752904586-9</t>
-  </si>
-  <si>
-    <t>1752904586-10</t>
-  </si>
-  <si>
-    <t>1752904586-11</t>
-  </si>
-  <si>
-    <t>1752904586-12</t>
-  </si>
-  <si>
-    <t>1752904586-13</t>
-  </si>
-  <si>
-    <t>1752904586-14</t>
-  </si>
-  <si>
-    <t>1752904586-15</t>
-  </si>
-  <si>
-    <t>1752904586-16</t>
-  </si>
-  <si>
-    <t>1752904586-17</t>
-  </si>
-  <si>
-    <t>1752904586-18</t>
-  </si>
-  <si>
-    <t>1752904586-19</t>
-  </si>
-  <si>
-    <t>1752904586-20</t>
-  </si>
-  <si>
-    <t>1752904586-21</t>
-  </si>
-  <si>
-    <t>1752904586-22</t>
-  </si>
-  <si>
-    <t>1752904586-23</t>
-  </si>
-  <si>
-    <t>1752904586-24</t>
-  </si>
-  <si>
-    <t>1752904586-25</t>
-  </si>
-  <si>
-    <t>1752904586-26</t>
-  </si>
-  <si>
-    <t>1752904586-27</t>
-  </si>
-  <si>
-    <t>1752904586-28</t>
-  </si>
-  <si>
-    <t>1752904586-29</t>
-  </si>
-  <si>
-    <t>1752904586-30</t>
-  </si>
-  <si>
-    <t>1752904586-31</t>
-  </si>
-  <si>
-    <t>1752904586-32</t>
-  </si>
-  <si>
-    <t>1752904586-33</t>
-  </si>
-  <si>
-    <t>1752904586-34</t>
-  </si>
-  <si>
-    <t>1752904586-35</t>
-  </si>
-  <si>
-    <t>1752904586-36</t>
-  </si>
-  <si>
-    <t>1752904586-37</t>
-  </si>
-  <si>
-    <t>1752904586-38</t>
-  </si>
-  <si>
-    <t>1752904586-39</t>
-  </si>
-  <si>
-    <t>1752904586-40</t>
-  </si>
-  <si>
-    <t>1752904586-41</t>
-  </si>
-  <si>
-    <t>1752904586-42</t>
-  </si>
-  <si>
-    <t>1752904586-43</t>
-  </si>
-  <si>
-    <t>1752904586-44</t>
-  </si>
-  <si>
-    <t>1752904586-45</t>
-  </si>
-  <si>
-    <t>1752904586-46</t>
-  </si>
-  <si>
-    <t>1752904586-47</t>
-  </si>
-  <si>
-    <t>1752904586-48</t>
-  </si>
-  <si>
-    <t>1752904586-49</t>
-  </si>
-  <si>
-    <t>1752904586-50</t>
-  </si>
-  <si>
-    <t>1752904586-51</t>
-  </si>
-  <si>
-    <t>1752904586-52</t>
-  </si>
-  <si>
-    <t>1752904586-53</t>
-  </si>
-  <si>
-    <t>1752904586-54</t>
-  </si>
-  <si>
-    <t>1752904586-55</t>
-  </si>
-  <si>
-    <t>1752904586-56</t>
-  </si>
-  <si>
-    <t>1752904586-57</t>
+    <t>1752904974-9</t>
+  </si>
+  <si>
+    <t>1752904974-10</t>
+  </si>
+  <si>
+    <t>1752904974-11</t>
+  </si>
+  <si>
+    <t>1752904974-12</t>
+  </si>
+  <si>
+    <t>1752904974-13</t>
+  </si>
+  <si>
+    <t>1752904974-14</t>
+  </si>
+  <si>
+    <t>1752904974-15</t>
+  </si>
+  <si>
+    <t>1752904974-16</t>
+  </si>
+  <si>
+    <t>1752904974-17</t>
+  </si>
+  <si>
+    <t>1752904974-18</t>
+  </si>
+  <si>
+    <t>1752904974-19</t>
+  </si>
+  <si>
+    <t>1752904974-20</t>
+  </si>
+  <si>
+    <t>1752904974-21</t>
+  </si>
+  <si>
+    <t>1752904974-22</t>
+  </si>
+  <si>
+    <t>1752904974-23</t>
+  </si>
+  <si>
+    <t>1752904974-24</t>
+  </si>
+  <si>
+    <t>1752904974-25</t>
+  </si>
+  <si>
+    <t>1752904974-26</t>
+  </si>
+  <si>
+    <t>1752904974-27</t>
+  </si>
+  <si>
+    <t>1752904974-28</t>
+  </si>
+  <si>
+    <t>1752904974-29</t>
+  </si>
+  <si>
+    <t>1752904974-30</t>
+  </si>
+  <si>
+    <t>1752904974-31</t>
+  </si>
+  <si>
+    <t>1752904974-32</t>
+  </si>
+  <si>
+    <t>1752904974-33</t>
+  </si>
+  <si>
+    <t>1752904974-34</t>
+  </si>
+  <si>
+    <t>1752904974-35</t>
+  </si>
+  <si>
+    <t>1752904974-36</t>
+  </si>
+  <si>
+    <t>1752904974-37</t>
+  </si>
+  <si>
+    <t>1752904974-38</t>
+  </si>
+  <si>
+    <t>1752904974-39</t>
+  </si>
+  <si>
+    <t>1752904974-40</t>
+  </si>
+  <si>
+    <t>1752904974-41</t>
+  </si>
+  <si>
+    <t>1752904974-42</t>
+  </si>
+  <si>
+    <t>1752904974-43</t>
+  </si>
+  <si>
+    <t>1752904974-44</t>
+  </si>
+  <si>
+    <t>1752904974-45</t>
+  </si>
+  <si>
+    <t>1752904974-46</t>
+  </si>
+  <si>
+    <t>1752904974-47</t>
+  </si>
+  <si>
+    <t>1752904974-48</t>
+  </si>
+  <si>
+    <t>1752904974-49</t>
+  </si>
+  <si>
+    <t>1752904974-50</t>
+  </si>
+  <si>
+    <t>1752904974-51</t>
+  </si>
+  <si>
+    <t>1752904974-52</t>
+  </si>
+  <si>
+    <t>1752904974-53</t>
+  </si>
+  <si>
+    <t>1752904974-54</t>
+  </si>
+  <si>
+    <t>1752904974-55</t>
+  </si>
+  <si>
+    <t>1752904974-56</t>
+  </si>
+  <si>
+    <t>1752904974-57</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -37,154 +37,160 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1752904974-9</t>
-  </si>
-  <si>
-    <t>1752904974-10</t>
-  </si>
-  <si>
-    <t>1752904974-11</t>
-  </si>
-  <si>
-    <t>1752904974-12</t>
-  </si>
-  <si>
-    <t>1752904974-13</t>
-  </si>
-  <si>
-    <t>1752904974-14</t>
-  </si>
-  <si>
-    <t>1752904974-15</t>
-  </si>
-  <si>
-    <t>1752904974-16</t>
-  </si>
-  <si>
-    <t>1752904974-17</t>
-  </si>
-  <si>
-    <t>1752904974-18</t>
-  </si>
-  <si>
-    <t>1752904974-19</t>
-  </si>
-  <si>
-    <t>1752904974-20</t>
-  </si>
-  <si>
-    <t>1752904974-21</t>
-  </si>
-  <si>
-    <t>1752904974-22</t>
-  </si>
-  <si>
-    <t>1752904974-23</t>
-  </si>
-  <si>
-    <t>1752904974-24</t>
-  </si>
-  <si>
-    <t>1752904974-25</t>
-  </si>
-  <si>
-    <t>1752904974-26</t>
-  </si>
-  <si>
-    <t>1752904974-27</t>
-  </si>
-  <si>
-    <t>1752904974-28</t>
-  </si>
-  <si>
-    <t>1752904974-29</t>
-  </si>
-  <si>
-    <t>1752904974-30</t>
-  </si>
-  <si>
-    <t>1752904974-31</t>
-  </si>
-  <si>
-    <t>1752904974-32</t>
-  </si>
-  <si>
-    <t>1752904974-33</t>
-  </si>
-  <si>
-    <t>1752904974-34</t>
-  </si>
-  <si>
-    <t>1752904974-35</t>
-  </si>
-  <si>
-    <t>1752904974-36</t>
-  </si>
-  <si>
-    <t>1752904974-37</t>
-  </si>
-  <si>
-    <t>1752904974-38</t>
-  </si>
-  <si>
-    <t>1752904974-39</t>
-  </si>
-  <si>
-    <t>1752904974-40</t>
-  </si>
-  <si>
-    <t>1752904974-41</t>
-  </si>
-  <si>
-    <t>1752904974-42</t>
-  </si>
-  <si>
-    <t>1752904974-43</t>
-  </si>
-  <si>
-    <t>1752904974-44</t>
-  </si>
-  <si>
-    <t>1752904974-45</t>
-  </si>
-  <si>
-    <t>1752904974-46</t>
-  </si>
-  <si>
-    <t>1752904974-47</t>
-  </si>
-  <si>
-    <t>1752904974-48</t>
-  </si>
-  <si>
-    <t>1752904974-49</t>
-  </si>
-  <si>
-    <t>1752904974-50</t>
-  </si>
-  <si>
-    <t>1752904974-51</t>
-  </si>
-  <si>
-    <t>1752904974-52</t>
-  </si>
-  <si>
-    <t>1752904974-53</t>
-  </si>
-  <si>
-    <t>1752904974-54</t>
-  </si>
-  <si>
-    <t>1752904974-55</t>
-  </si>
-  <si>
-    <t>1752904974-56</t>
-  </si>
-  <si>
-    <t>1752904974-57</t>
+    <t>1755065398-9</t>
+  </si>
+  <si>
+    <t>1755065398-10</t>
+  </si>
+  <si>
+    <t>1755065398-11</t>
+  </si>
+  <si>
+    <t>1755065398-12</t>
+  </si>
+  <si>
+    <t>1755065398-13</t>
+  </si>
+  <si>
+    <t>1755065398-14</t>
+  </si>
+  <si>
+    <t>1755065398-15</t>
+  </si>
+  <si>
+    <t>1755065398-16</t>
+  </si>
+  <si>
+    <t>1755065398-17</t>
+  </si>
+  <si>
+    <t>1755065398-18</t>
+  </si>
+  <si>
+    <t>1755065398-19</t>
+  </si>
+  <si>
+    <t>1755065398-20</t>
+  </si>
+  <si>
+    <t>1755065398-21</t>
+  </si>
+  <si>
+    <t>1755065398-22</t>
+  </si>
+  <si>
+    <t>1755065398-23</t>
+  </si>
+  <si>
+    <t>1755065398-24</t>
+  </si>
+  <si>
+    <t>1755065398-25</t>
+  </si>
+  <si>
+    <t>1755065398-26</t>
+  </si>
+  <si>
+    <t>1755065398-27</t>
+  </si>
+  <si>
+    <t>1755065398-28</t>
+  </si>
+  <si>
+    <t>1755065398-29</t>
+  </si>
+  <si>
+    <t>1755065398-30</t>
+  </si>
+  <si>
+    <t>1755065398-31</t>
+  </si>
+  <si>
+    <t>1755065398-32</t>
+  </si>
+  <si>
+    <t>1755065398-33</t>
+  </si>
+  <si>
+    <t>1755065398-34</t>
+  </si>
+  <si>
+    <t>1755065398-35</t>
+  </si>
+  <si>
+    <t>1755065398-36</t>
+  </si>
+  <si>
+    <t>1755065398-37</t>
+  </si>
+  <si>
+    <t>1755065398-38</t>
+  </si>
+  <si>
+    <t>1755065398-39</t>
+  </si>
+  <si>
+    <t>1755065398-40</t>
+  </si>
+  <si>
+    <t>1755065398-41</t>
+  </si>
+  <si>
+    <t>1755065398-42</t>
+  </si>
+  <si>
+    <t>1755065398-43</t>
+  </si>
+  <si>
+    <t>1755065398-44</t>
+  </si>
+  <si>
+    <t>1755065398-45</t>
+  </si>
+  <si>
+    <t>1755065398-46</t>
+  </si>
+  <si>
+    <t>1755065398-47</t>
+  </si>
+  <si>
+    <t>1755065398-48</t>
+  </si>
+  <si>
+    <t>1755065398-49</t>
+  </si>
+  <si>
+    <t>1755065398-50</t>
+  </si>
+  <si>
+    <t>1755065398-51</t>
+  </si>
+  <si>
+    <t>1755065398-52</t>
+  </si>
+  <si>
+    <t>1755065398-53</t>
+  </si>
+  <si>
+    <t>1755065398-54</t>
+  </si>
+  <si>
+    <t>1755065398-55</t>
+  </si>
+  <si>
+    <t>1755065398-56</t>
+  </si>
+  <si>
+    <t>1755065398-57</t>
+  </si>
+  <si>
+    <t>1755065398-58</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
+  </si>
+  <si>
+    <t>Based64</t>
   </si>
   <si>
     <t>Lost but Not Forgotten</t>
@@ -702,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,10 +742,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -748,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -759,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -771,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -782,10 +788,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -794,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -805,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -817,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -828,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -840,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -851,10 +857,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -863,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -874,10 +880,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -886,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -897,10 +903,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -909,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -920,10 +926,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -932,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -943,10 +949,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -955,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -966,10 +972,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -978,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -989,10 +995,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1001,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1012,10 +1018,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1024,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1035,10 +1041,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1047,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1058,10 +1064,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1070,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1081,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1093,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1104,10 +1110,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1116,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1127,10 +1133,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1139,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1150,10 +1156,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1162,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1173,10 +1179,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1185,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>50</v>
@@ -1196,10 +1202,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1208,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -1219,10 +1225,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1231,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1242,10 +1248,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1254,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1265,10 +1271,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1277,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1288,10 +1294,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1300,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1311,10 +1317,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1323,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1334,10 +1340,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1346,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1357,10 +1363,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1369,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1380,10 +1386,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1392,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>50</v>
@@ -1403,10 +1409,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>50</v>
@@ -1426,10 +1432,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1438,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1449,10 +1455,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1461,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1472,10 +1478,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1484,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1495,10 +1501,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1507,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1518,10 +1524,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1530,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1541,10 +1547,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1553,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1564,10 +1570,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1576,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G38">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1587,10 +1593,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1599,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1610,10 +1616,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40">
         <v>50</v>
@@ -1633,10 +1639,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1645,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G41">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1656,10 +1662,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1668,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1679,10 +1685,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1691,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1702,10 +1708,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1714,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1725,10 +1731,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1737,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1748,10 +1754,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1760,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G46">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1771,10 +1777,10 @@
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1783,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1794,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1806,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1817,10 +1823,10 @@
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1829,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G49">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1840,21 +1846,44 @@
         <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="B51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>33</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>50</v>
       </c>
     </row>
@@ -1909,6 +1938,7 @@
     <hyperlink ref="B48" r:id="rId47"/>
     <hyperlink ref="B49" r:id="rId48"/>
     <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -37,157 +37,169 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1755065398-9</t>
-  </si>
-  <si>
-    <t>1755065398-10</t>
-  </si>
-  <si>
-    <t>1755065398-11</t>
-  </si>
-  <si>
-    <t>1755065398-12</t>
-  </si>
-  <si>
-    <t>1755065398-13</t>
-  </si>
-  <si>
-    <t>1755065398-14</t>
-  </si>
-  <si>
-    <t>1755065398-15</t>
-  </si>
-  <si>
-    <t>1755065398-16</t>
-  </si>
-  <si>
-    <t>1755065398-17</t>
-  </si>
-  <si>
-    <t>1755065398-18</t>
-  </si>
-  <si>
-    <t>1755065398-19</t>
-  </si>
-  <si>
-    <t>1755065398-20</t>
-  </si>
-  <si>
-    <t>1755065398-21</t>
-  </si>
-  <si>
-    <t>1755065398-22</t>
-  </si>
-  <si>
-    <t>1755065398-23</t>
-  </si>
-  <si>
-    <t>1755065398-24</t>
-  </si>
-  <si>
-    <t>1755065398-25</t>
-  </si>
-  <si>
-    <t>1755065398-26</t>
-  </si>
-  <si>
-    <t>1755065398-27</t>
-  </si>
-  <si>
-    <t>1755065398-28</t>
-  </si>
-  <si>
-    <t>1755065398-29</t>
-  </si>
-  <si>
-    <t>1755065398-30</t>
-  </si>
-  <si>
-    <t>1755065398-31</t>
-  </si>
-  <si>
-    <t>1755065398-32</t>
-  </si>
-  <si>
-    <t>1755065398-33</t>
-  </si>
-  <si>
-    <t>1755065398-34</t>
-  </si>
-  <si>
-    <t>1755065398-35</t>
-  </si>
-  <si>
-    <t>1755065398-36</t>
-  </si>
-  <si>
-    <t>1755065398-37</t>
-  </si>
-  <si>
-    <t>1755065398-38</t>
-  </si>
-  <si>
-    <t>1755065398-39</t>
-  </si>
-  <si>
-    <t>1755065398-40</t>
-  </si>
-  <si>
-    <t>1755065398-41</t>
-  </si>
-  <si>
-    <t>1755065398-42</t>
-  </si>
-  <si>
-    <t>1755065398-43</t>
-  </si>
-  <si>
-    <t>1755065398-44</t>
-  </si>
-  <si>
-    <t>1755065398-45</t>
-  </si>
-  <si>
-    <t>1755065398-46</t>
-  </si>
-  <si>
-    <t>1755065398-47</t>
-  </si>
-  <si>
-    <t>1755065398-48</t>
-  </si>
-  <si>
-    <t>1755065398-49</t>
-  </si>
-  <si>
-    <t>1755065398-50</t>
-  </si>
-  <si>
-    <t>1755065398-51</t>
-  </si>
-  <si>
-    <t>1755065398-52</t>
-  </si>
-  <si>
-    <t>1755065398-53</t>
-  </si>
-  <si>
-    <t>1755065398-54</t>
-  </si>
-  <si>
-    <t>1755065398-55</t>
-  </si>
-  <si>
-    <t>1755065398-56</t>
-  </si>
-  <si>
-    <t>1755065398-57</t>
-  </si>
-  <si>
-    <t>1755065398-58</t>
+    <t>1756411275-9</t>
+  </si>
+  <si>
+    <t>1756411275-10</t>
+  </si>
+  <si>
+    <t>1756411275-11</t>
+  </si>
+  <si>
+    <t>1756411275-12</t>
+  </si>
+  <si>
+    <t>1756411275-13</t>
+  </si>
+  <si>
+    <t>1756411275-14</t>
+  </si>
+  <si>
+    <t>1756411275-15</t>
+  </si>
+  <si>
+    <t>1756411275-16</t>
+  </si>
+  <si>
+    <t>1756411275-17</t>
+  </si>
+  <si>
+    <t>1756411275-18</t>
+  </si>
+  <si>
+    <t>1756411275-19</t>
+  </si>
+  <si>
+    <t>1756411275-20</t>
+  </si>
+  <si>
+    <t>1756411275-21</t>
+  </si>
+  <si>
+    <t>1756411275-22</t>
+  </si>
+  <si>
+    <t>1756411275-23</t>
+  </si>
+  <si>
+    <t>1756411275-24</t>
+  </si>
+  <si>
+    <t>1756411275-25</t>
+  </si>
+  <si>
+    <t>1756411275-26</t>
+  </si>
+  <si>
+    <t>1756411275-27</t>
+  </si>
+  <si>
+    <t>1756411275-28</t>
+  </si>
+  <si>
+    <t>1756411275-29</t>
+  </si>
+  <si>
+    <t>1756411275-30</t>
+  </si>
+  <si>
+    <t>1756411275-31</t>
+  </si>
+  <si>
+    <t>1756411275-32</t>
+  </si>
+  <si>
+    <t>1756411275-33</t>
+  </si>
+  <si>
+    <t>1756411275-34</t>
+  </si>
+  <si>
+    <t>1756411275-35</t>
+  </si>
+  <si>
+    <t>1756411275-36</t>
+  </si>
+  <si>
+    <t>1756411275-37</t>
+  </si>
+  <si>
+    <t>1756411275-38</t>
+  </si>
+  <si>
+    <t>1756411275-39</t>
+  </si>
+  <si>
+    <t>1756411275-40</t>
+  </si>
+  <si>
+    <t>1756411275-41</t>
+  </si>
+  <si>
+    <t>1756411275-42</t>
+  </si>
+  <si>
+    <t>1756411275-43</t>
+  </si>
+  <si>
+    <t>1756411275-44</t>
+  </si>
+  <si>
+    <t>1756411275-45</t>
+  </si>
+  <si>
+    <t>1756411275-46</t>
+  </si>
+  <si>
+    <t>1756411275-47</t>
+  </si>
+  <si>
+    <t>1756411275-48</t>
+  </si>
+  <si>
+    <t>1756411275-49</t>
+  </si>
+  <si>
+    <t>1756411275-50</t>
+  </si>
+  <si>
+    <t>1756411275-51</t>
+  </si>
+  <si>
+    <t>1756411275-52</t>
+  </si>
+  <si>
+    <t>1756411275-53</t>
+  </si>
+  <si>
+    <t>1756411275-54</t>
+  </si>
+  <si>
+    <t>1756411275-55</t>
+  </si>
+  <si>
+    <t>1756411275-56</t>
+  </si>
+  <si>
+    <t>1756411275-57</t>
+  </si>
+  <si>
+    <t>1756411275-58</t>
+  </si>
+  <si>
+    <t>1756411275-59</t>
+  </si>
+  <si>
+    <t>1756411275-60</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
+  </si>
+  <si>
+    <t>Emoji</t>
+  </si>
+  <si>
+    <t>Whitespace</t>
   </si>
   <si>
     <t>Based64</t>
@@ -708,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -754,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -765,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -777,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>500</v>
@@ -788,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -800,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -811,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -834,10 +846,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -846,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -857,10 +869,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -869,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -880,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -903,10 +915,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -915,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -926,10 +938,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -938,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -949,10 +961,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -961,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -972,10 +984,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -984,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -995,10 +1007,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1007,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1018,10 +1030,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1030,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1041,10 +1053,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1053,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1064,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1076,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1087,10 +1099,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1099,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1110,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1122,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1133,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1156,10 +1168,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1179,10 +1191,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1191,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1202,10 +1214,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1214,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1225,10 +1237,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1237,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>50</v>
@@ -1248,10 +1260,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1260,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G24">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1271,10 +1283,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1283,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1294,10 +1306,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1306,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1317,10 +1329,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1329,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1340,10 +1352,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1352,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1363,10 +1375,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1375,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1386,10 +1398,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1398,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1409,10 +1421,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1421,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1432,10 +1444,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1444,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -1455,10 +1467,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1467,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1478,10 +1490,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1490,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1501,10 +1513,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1513,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1524,10 +1536,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1547,10 +1559,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1559,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G37">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1570,10 +1582,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1582,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1593,10 +1605,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1605,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1616,10 +1628,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1628,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>50</v>
@@ -1639,10 +1651,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1651,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1662,10 +1674,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1674,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1685,10 +1697,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1697,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G43">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1708,10 +1720,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1720,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1731,10 +1743,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1754,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1766,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1777,10 +1789,10 @@
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1789,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1800,10 +1812,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1812,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G48">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1823,10 +1835,10 @@
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1835,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1846,10 +1858,10 @@
         <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1858,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G50">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1869,21 +1881,67 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="B52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>33</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>50</v>
       </c>
     </row>
@@ -1939,6 +1997,8 @@
     <hyperlink ref="B49" r:id="rId48"/>
     <hyperlink ref="B50" r:id="rId49"/>
     <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,160 +37,160 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1756411275-9</t>
-  </si>
-  <si>
-    <t>1756411275-10</t>
-  </si>
-  <si>
-    <t>1756411275-11</t>
-  </si>
-  <si>
-    <t>1756411275-12</t>
-  </si>
-  <si>
-    <t>1756411275-13</t>
-  </si>
-  <si>
-    <t>1756411275-14</t>
-  </si>
-  <si>
-    <t>1756411275-15</t>
-  </si>
-  <si>
-    <t>1756411275-16</t>
-  </si>
-  <si>
-    <t>1756411275-17</t>
-  </si>
-  <si>
-    <t>1756411275-18</t>
-  </si>
-  <si>
-    <t>1756411275-19</t>
-  </si>
-  <si>
-    <t>1756411275-20</t>
-  </si>
-  <si>
-    <t>1756411275-21</t>
-  </si>
-  <si>
-    <t>1756411275-22</t>
-  </si>
-  <si>
-    <t>1756411275-23</t>
-  </si>
-  <si>
-    <t>1756411275-24</t>
-  </si>
-  <si>
-    <t>1756411275-25</t>
-  </si>
-  <si>
-    <t>1756411275-26</t>
-  </si>
-  <si>
-    <t>1756411275-27</t>
-  </si>
-  <si>
-    <t>1756411275-28</t>
-  </si>
-  <si>
-    <t>1756411275-29</t>
-  </si>
-  <si>
-    <t>1756411275-30</t>
-  </si>
-  <si>
-    <t>1756411275-31</t>
-  </si>
-  <si>
-    <t>1756411275-32</t>
-  </si>
-  <si>
-    <t>1756411275-33</t>
-  </si>
-  <si>
-    <t>1756411275-34</t>
-  </si>
-  <si>
-    <t>1756411275-35</t>
-  </si>
-  <si>
-    <t>1756411275-36</t>
-  </si>
-  <si>
-    <t>1756411275-37</t>
-  </si>
-  <si>
-    <t>1756411275-38</t>
-  </si>
-  <si>
-    <t>1756411275-39</t>
-  </si>
-  <si>
-    <t>1756411275-40</t>
-  </si>
-  <si>
-    <t>1756411275-41</t>
-  </si>
-  <si>
-    <t>1756411275-42</t>
-  </si>
-  <si>
-    <t>1756411275-43</t>
-  </si>
-  <si>
-    <t>1756411275-44</t>
-  </si>
-  <si>
-    <t>1756411275-45</t>
-  </si>
-  <si>
-    <t>1756411275-46</t>
-  </si>
-  <si>
-    <t>1756411275-47</t>
-  </si>
-  <si>
-    <t>1756411275-48</t>
-  </si>
-  <si>
-    <t>1756411275-49</t>
-  </si>
-  <si>
-    <t>1756411275-50</t>
-  </si>
-  <si>
-    <t>1756411275-51</t>
-  </si>
-  <si>
-    <t>1756411275-52</t>
-  </si>
-  <si>
-    <t>1756411275-53</t>
-  </si>
-  <si>
-    <t>1756411275-54</t>
-  </si>
-  <si>
-    <t>1756411275-55</t>
-  </si>
-  <si>
-    <t>1756411275-56</t>
-  </si>
-  <si>
-    <t>1756411275-57</t>
-  </si>
-  <si>
-    <t>1756411275-58</t>
-  </si>
-  <si>
-    <t>1756411275-59</t>
-  </si>
-  <si>
-    <t>1756411275-60</t>
+    <t>1756411739-9</t>
+  </si>
+  <si>
+    <t>1756411739-10</t>
+  </si>
+  <si>
+    <t>1756411739-11</t>
+  </si>
+  <si>
+    <t>1756411739-12</t>
+  </si>
+  <si>
+    <t>1756411739-13</t>
+  </si>
+  <si>
+    <t>1756411739-14</t>
+  </si>
+  <si>
+    <t>1756411739-15</t>
+  </si>
+  <si>
+    <t>1756411739-16</t>
+  </si>
+  <si>
+    <t>1756411739-17</t>
+  </si>
+  <si>
+    <t>1756411739-18</t>
+  </si>
+  <si>
+    <t>1756411739-19</t>
+  </si>
+  <si>
+    <t>1756411739-20</t>
+  </si>
+  <si>
+    <t>1756411739-21</t>
+  </si>
+  <si>
+    <t>1756411739-22</t>
+  </si>
+  <si>
+    <t>1756411739-23</t>
+  </si>
+  <si>
+    <t>1756411739-24</t>
+  </si>
+  <si>
+    <t>1756411739-25</t>
+  </si>
+  <si>
+    <t>1756411739-26</t>
+  </si>
+  <si>
+    <t>1756411739-27</t>
+  </si>
+  <si>
+    <t>1756411739-28</t>
+  </si>
+  <si>
+    <t>1756411739-29</t>
+  </si>
+  <si>
+    <t>1756411739-30</t>
+  </si>
+  <si>
+    <t>1756411739-31</t>
+  </si>
+  <si>
+    <t>1756411739-32</t>
+  </si>
+  <si>
+    <t>1756411739-33</t>
+  </si>
+  <si>
+    <t>1756411739-34</t>
+  </si>
+  <si>
+    <t>1756411739-35</t>
+  </si>
+  <si>
+    <t>1756411739-36</t>
+  </si>
+  <si>
+    <t>1756411739-37</t>
+  </si>
+  <si>
+    <t>1756411739-38</t>
+  </si>
+  <si>
+    <t>1756411739-39</t>
+  </si>
+  <si>
+    <t>1756411739-40</t>
+  </si>
+  <si>
+    <t>1756411739-41</t>
+  </si>
+  <si>
+    <t>1756411739-42</t>
+  </si>
+  <si>
+    <t>1756411739-43</t>
+  </si>
+  <si>
+    <t>1756411739-44</t>
+  </si>
+  <si>
+    <t>1756411739-45</t>
+  </si>
+  <si>
+    <t>1756411739-46</t>
+  </si>
+  <si>
+    <t>1756411739-47</t>
+  </si>
+  <si>
+    <t>1756411739-48</t>
+  </si>
+  <si>
+    <t>1756411739-49</t>
+  </si>
+  <si>
+    <t>1756411739-50</t>
+  </si>
+  <si>
+    <t>1756411739-51</t>
+  </si>
+  <si>
+    <t>1756411739-52</t>
+  </si>
+  <si>
+    <t>1756411739-53</t>
+  </si>
+  <si>
+    <t>1756411739-54</t>
+  </si>
+  <si>
+    <t>1756411739-55</t>
+  </si>
+  <si>
+    <t>1756411739-56</t>
+  </si>
+  <si>
+    <t>1756411739-57</t>
+  </si>
+  <si>
+    <t>1756411739-58</t>
+  </si>
+  <si>
+    <t>1756411739-59</t>
+  </si>
+  <si>
+    <t>1756411739-60</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,160 +37,160 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1756411739-9</t>
-  </si>
-  <si>
-    <t>1756411739-10</t>
-  </si>
-  <si>
-    <t>1756411739-11</t>
-  </si>
-  <si>
-    <t>1756411739-12</t>
-  </si>
-  <si>
-    <t>1756411739-13</t>
-  </si>
-  <si>
-    <t>1756411739-14</t>
-  </si>
-  <si>
-    <t>1756411739-15</t>
-  </si>
-  <si>
-    <t>1756411739-16</t>
-  </si>
-  <si>
-    <t>1756411739-17</t>
-  </si>
-  <si>
-    <t>1756411739-18</t>
-  </si>
-  <si>
-    <t>1756411739-19</t>
-  </si>
-  <si>
-    <t>1756411739-20</t>
-  </si>
-  <si>
-    <t>1756411739-21</t>
-  </si>
-  <si>
-    <t>1756411739-22</t>
-  </si>
-  <si>
-    <t>1756411739-23</t>
-  </si>
-  <si>
-    <t>1756411739-24</t>
-  </si>
-  <si>
-    <t>1756411739-25</t>
-  </si>
-  <si>
-    <t>1756411739-26</t>
-  </si>
-  <si>
-    <t>1756411739-27</t>
-  </si>
-  <si>
-    <t>1756411739-28</t>
-  </si>
-  <si>
-    <t>1756411739-29</t>
-  </si>
-  <si>
-    <t>1756411739-30</t>
-  </si>
-  <si>
-    <t>1756411739-31</t>
-  </si>
-  <si>
-    <t>1756411739-32</t>
-  </si>
-  <si>
-    <t>1756411739-33</t>
-  </si>
-  <si>
-    <t>1756411739-34</t>
-  </si>
-  <si>
-    <t>1756411739-35</t>
-  </si>
-  <si>
-    <t>1756411739-36</t>
-  </si>
-  <si>
-    <t>1756411739-37</t>
-  </si>
-  <si>
-    <t>1756411739-38</t>
-  </si>
-  <si>
-    <t>1756411739-39</t>
-  </si>
-  <si>
-    <t>1756411739-40</t>
-  </si>
-  <si>
-    <t>1756411739-41</t>
-  </si>
-  <si>
-    <t>1756411739-42</t>
-  </si>
-  <si>
-    <t>1756411739-43</t>
-  </si>
-  <si>
-    <t>1756411739-44</t>
-  </si>
-  <si>
-    <t>1756411739-45</t>
-  </si>
-  <si>
-    <t>1756411739-46</t>
-  </si>
-  <si>
-    <t>1756411739-47</t>
-  </si>
-  <si>
-    <t>1756411739-48</t>
-  </si>
-  <si>
-    <t>1756411739-49</t>
-  </si>
-  <si>
-    <t>1756411739-50</t>
-  </si>
-  <si>
-    <t>1756411739-51</t>
-  </si>
-  <si>
-    <t>1756411739-52</t>
-  </si>
-  <si>
-    <t>1756411739-53</t>
-  </si>
-  <si>
-    <t>1756411739-54</t>
-  </si>
-  <si>
-    <t>1756411739-55</t>
-  </si>
-  <si>
-    <t>1756411739-56</t>
-  </si>
-  <si>
-    <t>1756411739-57</t>
-  </si>
-  <si>
-    <t>1756411739-58</t>
-  </si>
-  <si>
-    <t>1756411739-59</t>
-  </si>
-  <si>
-    <t>1756411739-60</t>
+    <t>1756412892-9</t>
+  </si>
+  <si>
+    <t>1756412892-10</t>
+  </si>
+  <si>
+    <t>1756412892-11</t>
+  </si>
+  <si>
+    <t>1756412892-12</t>
+  </si>
+  <si>
+    <t>1756412892-13</t>
+  </si>
+  <si>
+    <t>1756412892-14</t>
+  </si>
+  <si>
+    <t>1756412892-15</t>
+  </si>
+  <si>
+    <t>1756412892-16</t>
+  </si>
+  <si>
+    <t>1756412892-17</t>
+  </si>
+  <si>
+    <t>1756412892-18</t>
+  </si>
+  <si>
+    <t>1756412892-19</t>
+  </si>
+  <si>
+    <t>1756412892-20</t>
+  </si>
+  <si>
+    <t>1756412892-21</t>
+  </si>
+  <si>
+    <t>1756412892-22</t>
+  </si>
+  <si>
+    <t>1756412892-23</t>
+  </si>
+  <si>
+    <t>1756412892-24</t>
+  </si>
+  <si>
+    <t>1756412892-25</t>
+  </si>
+  <si>
+    <t>1756412892-26</t>
+  </si>
+  <si>
+    <t>1756412892-27</t>
+  </si>
+  <si>
+    <t>1756412892-28</t>
+  </si>
+  <si>
+    <t>1756412892-29</t>
+  </si>
+  <si>
+    <t>1756412892-30</t>
+  </si>
+  <si>
+    <t>1756412892-31</t>
+  </si>
+  <si>
+    <t>1756412892-32</t>
+  </si>
+  <si>
+    <t>1756412892-33</t>
+  </si>
+  <si>
+    <t>1756412892-34</t>
+  </si>
+  <si>
+    <t>1756412892-35</t>
+  </si>
+  <si>
+    <t>1756412892-36</t>
+  </si>
+  <si>
+    <t>1756412892-37</t>
+  </si>
+  <si>
+    <t>1756412892-38</t>
+  </si>
+  <si>
+    <t>1756412892-39</t>
+  </si>
+  <si>
+    <t>1756412892-40</t>
+  </si>
+  <si>
+    <t>1756412892-41</t>
+  </si>
+  <si>
+    <t>1756412892-42</t>
+  </si>
+  <si>
+    <t>1756412892-43</t>
+  </si>
+  <si>
+    <t>1756412892-44</t>
+  </si>
+  <si>
+    <t>1756412892-45</t>
+  </si>
+  <si>
+    <t>1756412892-46</t>
+  </si>
+  <si>
+    <t>1756412892-47</t>
+  </si>
+  <si>
+    <t>1756412892-48</t>
+  </si>
+  <si>
+    <t>1756412892-49</t>
+  </si>
+  <si>
+    <t>1756412892-50</t>
+  </si>
+  <si>
+    <t>1756412892-51</t>
+  </si>
+  <si>
+    <t>1756412892-52</t>
+  </si>
+  <si>
+    <t>1756412892-53</t>
+  </si>
+  <si>
+    <t>1756412892-54</t>
+  </si>
+  <si>
+    <t>1756412892-55</t>
+  </si>
+  <si>
+    <t>1756412892-56</t>
+  </si>
+  <si>
+    <t>1756412892-57</t>
+  </si>
+  <si>
+    <t>1756412892-58</t>
+  </si>
+  <si>
+    <t>1756412892-59</t>
+  </si>
+  <si>
+    <t>1756412892-60</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,160 +37,160 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1756412892-9</t>
-  </si>
-  <si>
-    <t>1756412892-10</t>
-  </si>
-  <si>
-    <t>1756412892-11</t>
-  </si>
-  <si>
-    <t>1756412892-12</t>
-  </si>
-  <si>
-    <t>1756412892-13</t>
-  </si>
-  <si>
-    <t>1756412892-14</t>
-  </si>
-  <si>
-    <t>1756412892-15</t>
-  </si>
-  <si>
-    <t>1756412892-16</t>
-  </si>
-  <si>
-    <t>1756412892-17</t>
-  </si>
-  <si>
-    <t>1756412892-18</t>
-  </si>
-  <si>
-    <t>1756412892-19</t>
-  </si>
-  <si>
-    <t>1756412892-20</t>
-  </si>
-  <si>
-    <t>1756412892-21</t>
-  </si>
-  <si>
-    <t>1756412892-22</t>
-  </si>
-  <si>
-    <t>1756412892-23</t>
-  </si>
-  <si>
-    <t>1756412892-24</t>
-  </si>
-  <si>
-    <t>1756412892-25</t>
-  </si>
-  <si>
-    <t>1756412892-26</t>
-  </si>
-  <si>
-    <t>1756412892-27</t>
-  </si>
-  <si>
-    <t>1756412892-28</t>
-  </si>
-  <si>
-    <t>1756412892-29</t>
-  </si>
-  <si>
-    <t>1756412892-30</t>
-  </si>
-  <si>
-    <t>1756412892-31</t>
-  </si>
-  <si>
-    <t>1756412892-32</t>
-  </si>
-  <si>
-    <t>1756412892-33</t>
-  </si>
-  <si>
-    <t>1756412892-34</t>
-  </si>
-  <si>
-    <t>1756412892-35</t>
-  </si>
-  <si>
-    <t>1756412892-36</t>
-  </si>
-  <si>
-    <t>1756412892-37</t>
-  </si>
-  <si>
-    <t>1756412892-38</t>
-  </si>
-  <si>
-    <t>1756412892-39</t>
-  </si>
-  <si>
-    <t>1756412892-40</t>
-  </si>
-  <si>
-    <t>1756412892-41</t>
-  </si>
-  <si>
-    <t>1756412892-42</t>
-  </si>
-  <si>
-    <t>1756412892-43</t>
-  </si>
-  <si>
-    <t>1756412892-44</t>
-  </si>
-  <si>
-    <t>1756412892-45</t>
-  </si>
-  <si>
-    <t>1756412892-46</t>
-  </si>
-  <si>
-    <t>1756412892-47</t>
-  </si>
-  <si>
-    <t>1756412892-48</t>
-  </si>
-  <si>
-    <t>1756412892-49</t>
-  </si>
-  <si>
-    <t>1756412892-50</t>
-  </si>
-  <si>
-    <t>1756412892-51</t>
-  </si>
-  <si>
-    <t>1756412892-52</t>
-  </si>
-  <si>
-    <t>1756412892-53</t>
-  </si>
-  <si>
-    <t>1756412892-54</t>
-  </si>
-  <si>
-    <t>1756412892-55</t>
-  </si>
-  <si>
-    <t>1756412892-56</t>
-  </si>
-  <si>
-    <t>1756412892-57</t>
-  </si>
-  <si>
-    <t>1756412892-58</t>
-  </si>
-  <si>
-    <t>1756412892-59</t>
-  </si>
-  <si>
-    <t>1756412892-60</t>
+    <t>1756434092-9</t>
+  </si>
+  <si>
+    <t>1756434092-10</t>
+  </si>
+  <si>
+    <t>1756434092-11</t>
+  </si>
+  <si>
+    <t>1756434092-12</t>
+  </si>
+  <si>
+    <t>1756434092-13</t>
+  </si>
+  <si>
+    <t>1756434092-14</t>
+  </si>
+  <si>
+    <t>1756434092-15</t>
+  </si>
+  <si>
+    <t>1756434092-16</t>
+  </si>
+  <si>
+    <t>1756434092-17</t>
+  </si>
+  <si>
+    <t>1756434092-18</t>
+  </si>
+  <si>
+    <t>1756434092-19</t>
+  </si>
+  <si>
+    <t>1756434092-20</t>
+  </si>
+  <si>
+    <t>1756434092-21</t>
+  </si>
+  <si>
+    <t>1756434092-22</t>
+  </si>
+  <si>
+    <t>1756434092-23</t>
+  </si>
+  <si>
+    <t>1756434092-24</t>
+  </si>
+  <si>
+    <t>1756434092-25</t>
+  </si>
+  <si>
+    <t>1756434092-26</t>
+  </si>
+  <si>
+    <t>1756434092-27</t>
+  </si>
+  <si>
+    <t>1756434092-28</t>
+  </si>
+  <si>
+    <t>1756434092-29</t>
+  </si>
+  <si>
+    <t>1756434092-30</t>
+  </si>
+  <si>
+    <t>1756434092-31</t>
+  </si>
+  <si>
+    <t>1756434092-32</t>
+  </si>
+  <si>
+    <t>1756434092-33</t>
+  </si>
+  <si>
+    <t>1756434092-34</t>
+  </si>
+  <si>
+    <t>1756434092-35</t>
+  </si>
+  <si>
+    <t>1756434092-36</t>
+  </si>
+  <si>
+    <t>1756434092-37</t>
+  </si>
+  <si>
+    <t>1756434092-38</t>
+  </si>
+  <si>
+    <t>1756434092-39</t>
+  </si>
+  <si>
+    <t>1756434092-40</t>
+  </si>
+  <si>
+    <t>1756434092-41</t>
+  </si>
+  <si>
+    <t>1756434092-42</t>
+  </si>
+  <si>
+    <t>1756434092-43</t>
+  </si>
+  <si>
+    <t>1756434092-44</t>
+  </si>
+  <si>
+    <t>1756434092-45</t>
+  </si>
+  <si>
+    <t>1756434092-46</t>
+  </si>
+  <si>
+    <t>1756434092-47</t>
+  </si>
+  <si>
+    <t>1756434092-48</t>
+  </si>
+  <si>
+    <t>1756434092-49</t>
+  </si>
+  <si>
+    <t>1756434092-50</t>
+  </si>
+  <si>
+    <t>1756434092-51</t>
+  </si>
+  <si>
+    <t>1756434092-52</t>
+  </si>
+  <si>
+    <t>1756434092-53</t>
+  </si>
+  <si>
+    <t>1756434092-54</t>
+  </si>
+  <si>
+    <t>1756434092-55</t>
+  </si>
+  <si>
+    <t>1756434092-56</t>
+  </si>
+  <si>
+    <t>1756434092-57</t>
+  </si>
+  <si>
+    <t>1756434092-58</t>
+  </si>
+  <si>
+    <t>1756434092-59</t>
+  </si>
+  <si>
+    <t>1756434092-60</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>500</v>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,160 +37,160 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1756434092-9</t>
-  </si>
-  <si>
-    <t>1756434092-10</t>
-  </si>
-  <si>
-    <t>1756434092-11</t>
-  </si>
-  <si>
-    <t>1756434092-12</t>
-  </si>
-  <si>
-    <t>1756434092-13</t>
-  </si>
-  <si>
-    <t>1756434092-14</t>
-  </si>
-  <si>
-    <t>1756434092-15</t>
-  </si>
-  <si>
-    <t>1756434092-16</t>
-  </si>
-  <si>
-    <t>1756434092-17</t>
-  </si>
-  <si>
-    <t>1756434092-18</t>
-  </si>
-  <si>
-    <t>1756434092-19</t>
-  </si>
-  <si>
-    <t>1756434092-20</t>
-  </si>
-  <si>
-    <t>1756434092-21</t>
-  </si>
-  <si>
-    <t>1756434092-22</t>
-  </si>
-  <si>
-    <t>1756434092-23</t>
-  </si>
-  <si>
-    <t>1756434092-24</t>
-  </si>
-  <si>
-    <t>1756434092-25</t>
-  </si>
-  <si>
-    <t>1756434092-26</t>
-  </si>
-  <si>
-    <t>1756434092-27</t>
-  </si>
-  <si>
-    <t>1756434092-28</t>
-  </si>
-  <si>
-    <t>1756434092-29</t>
-  </si>
-  <si>
-    <t>1756434092-30</t>
-  </si>
-  <si>
-    <t>1756434092-31</t>
-  </si>
-  <si>
-    <t>1756434092-32</t>
-  </si>
-  <si>
-    <t>1756434092-33</t>
-  </si>
-  <si>
-    <t>1756434092-34</t>
-  </si>
-  <si>
-    <t>1756434092-35</t>
-  </si>
-  <si>
-    <t>1756434092-36</t>
-  </si>
-  <si>
-    <t>1756434092-37</t>
-  </si>
-  <si>
-    <t>1756434092-38</t>
-  </si>
-  <si>
-    <t>1756434092-39</t>
-  </si>
-  <si>
-    <t>1756434092-40</t>
-  </si>
-  <si>
-    <t>1756434092-41</t>
-  </si>
-  <si>
-    <t>1756434092-42</t>
-  </si>
-  <si>
-    <t>1756434092-43</t>
-  </si>
-  <si>
-    <t>1756434092-44</t>
-  </si>
-  <si>
-    <t>1756434092-45</t>
-  </si>
-  <si>
-    <t>1756434092-46</t>
-  </si>
-  <si>
-    <t>1756434092-47</t>
-  </si>
-  <si>
-    <t>1756434092-48</t>
-  </si>
-  <si>
-    <t>1756434092-49</t>
-  </si>
-  <si>
-    <t>1756434092-50</t>
-  </si>
-  <si>
-    <t>1756434092-51</t>
-  </si>
-  <si>
-    <t>1756434092-52</t>
-  </si>
-  <si>
-    <t>1756434092-53</t>
-  </si>
-  <si>
-    <t>1756434092-54</t>
-  </si>
-  <si>
-    <t>1756434092-55</t>
-  </si>
-  <si>
-    <t>1756434092-56</t>
-  </si>
-  <si>
-    <t>1756434092-57</t>
-  </si>
-  <si>
-    <t>1756434092-58</t>
-  </si>
-  <si>
-    <t>1756434092-59</t>
-  </si>
-  <si>
-    <t>1756434092-60</t>
+    <t>1756434183-9</t>
+  </si>
+  <si>
+    <t>1756434183-10</t>
+  </si>
+  <si>
+    <t>1756434183-11</t>
+  </si>
+  <si>
+    <t>1756434183-12</t>
+  </si>
+  <si>
+    <t>1756434183-13</t>
+  </si>
+  <si>
+    <t>1756434183-14</t>
+  </si>
+  <si>
+    <t>1756434183-15</t>
+  </si>
+  <si>
+    <t>1756434183-16</t>
+  </si>
+  <si>
+    <t>1756434183-17</t>
+  </si>
+  <si>
+    <t>1756434183-18</t>
+  </si>
+  <si>
+    <t>1756434183-19</t>
+  </si>
+  <si>
+    <t>1756434183-20</t>
+  </si>
+  <si>
+    <t>1756434183-21</t>
+  </si>
+  <si>
+    <t>1756434183-22</t>
+  </si>
+  <si>
+    <t>1756434183-23</t>
+  </si>
+  <si>
+    <t>1756434183-24</t>
+  </si>
+  <si>
+    <t>1756434183-25</t>
+  </si>
+  <si>
+    <t>1756434183-26</t>
+  </si>
+  <si>
+    <t>1756434183-27</t>
+  </si>
+  <si>
+    <t>1756434183-28</t>
+  </si>
+  <si>
+    <t>1756434183-29</t>
+  </si>
+  <si>
+    <t>1756434183-30</t>
+  </si>
+  <si>
+    <t>1756434183-31</t>
+  </si>
+  <si>
+    <t>1756434183-32</t>
+  </si>
+  <si>
+    <t>1756434183-33</t>
+  </si>
+  <si>
+    <t>1756434183-34</t>
+  </si>
+  <si>
+    <t>1756434183-35</t>
+  </si>
+  <si>
+    <t>1756434183-36</t>
+  </si>
+  <si>
+    <t>1756434183-37</t>
+  </si>
+  <si>
+    <t>1756434183-38</t>
+  </si>
+  <si>
+    <t>1756434183-39</t>
+  </si>
+  <si>
+    <t>1756434183-40</t>
+  </si>
+  <si>
+    <t>1756434183-41</t>
+  </si>
+  <si>
+    <t>1756434183-42</t>
+  </si>
+  <si>
+    <t>1756434183-43</t>
+  </si>
+  <si>
+    <t>1756434183-44</t>
+  </si>
+  <si>
+    <t>1756434183-45</t>
+  </si>
+  <si>
+    <t>1756434183-46</t>
+  </si>
+  <si>
+    <t>1756434183-47</t>
+  </si>
+  <si>
+    <t>1756434183-48</t>
+  </si>
+  <si>
+    <t>1756434183-49</t>
+  </si>
+  <si>
+    <t>1756434183-50</t>
+  </si>
+  <si>
+    <t>1756434183-51</t>
+  </si>
+  <si>
+    <t>1756434183-52</t>
+  </si>
+  <si>
+    <t>1756434183-53</t>
+  </si>
+  <si>
+    <t>1756434183-54</t>
+  </si>
+  <si>
+    <t>1756434183-55</t>
+  </si>
+  <si>
+    <t>1756434183-56</t>
+  </si>
+  <si>
+    <t>1756434183-57</t>
+  </si>
+  <si>
+    <t>1756434183-58</t>
+  </si>
+  <si>
+    <t>1756434183-59</t>
+  </si>
+  <si>
+    <t>1756434183-60</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,160 +37,160 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1756434183-9</t>
-  </si>
-  <si>
-    <t>1756434183-10</t>
-  </si>
-  <si>
-    <t>1756434183-11</t>
-  </si>
-  <si>
-    <t>1756434183-12</t>
-  </si>
-  <si>
-    <t>1756434183-13</t>
-  </si>
-  <si>
-    <t>1756434183-14</t>
-  </si>
-  <si>
-    <t>1756434183-15</t>
-  </si>
-  <si>
-    <t>1756434183-16</t>
-  </si>
-  <si>
-    <t>1756434183-17</t>
-  </si>
-  <si>
-    <t>1756434183-18</t>
-  </si>
-  <si>
-    <t>1756434183-19</t>
-  </si>
-  <si>
-    <t>1756434183-20</t>
-  </si>
-  <si>
-    <t>1756434183-21</t>
-  </si>
-  <si>
-    <t>1756434183-22</t>
-  </si>
-  <si>
-    <t>1756434183-23</t>
-  </si>
-  <si>
-    <t>1756434183-24</t>
-  </si>
-  <si>
-    <t>1756434183-25</t>
-  </si>
-  <si>
-    <t>1756434183-26</t>
-  </si>
-  <si>
-    <t>1756434183-27</t>
-  </si>
-  <si>
-    <t>1756434183-28</t>
-  </si>
-  <si>
-    <t>1756434183-29</t>
-  </si>
-  <si>
-    <t>1756434183-30</t>
-  </si>
-  <si>
-    <t>1756434183-31</t>
-  </si>
-  <si>
-    <t>1756434183-32</t>
-  </si>
-  <si>
-    <t>1756434183-33</t>
-  </si>
-  <si>
-    <t>1756434183-34</t>
-  </si>
-  <si>
-    <t>1756434183-35</t>
-  </si>
-  <si>
-    <t>1756434183-36</t>
-  </si>
-  <si>
-    <t>1756434183-37</t>
-  </si>
-  <si>
-    <t>1756434183-38</t>
-  </si>
-  <si>
-    <t>1756434183-39</t>
-  </si>
-  <si>
-    <t>1756434183-40</t>
-  </si>
-  <si>
-    <t>1756434183-41</t>
-  </si>
-  <si>
-    <t>1756434183-42</t>
-  </si>
-  <si>
-    <t>1756434183-43</t>
-  </si>
-  <si>
-    <t>1756434183-44</t>
-  </si>
-  <si>
-    <t>1756434183-45</t>
-  </si>
-  <si>
-    <t>1756434183-46</t>
-  </si>
-  <si>
-    <t>1756434183-47</t>
-  </si>
-  <si>
-    <t>1756434183-48</t>
-  </si>
-  <si>
-    <t>1756434183-49</t>
-  </si>
-  <si>
-    <t>1756434183-50</t>
-  </si>
-  <si>
-    <t>1756434183-51</t>
-  </si>
-  <si>
-    <t>1756434183-52</t>
-  </si>
-  <si>
-    <t>1756434183-53</t>
-  </si>
-  <si>
-    <t>1756434183-54</t>
-  </si>
-  <si>
-    <t>1756434183-55</t>
-  </si>
-  <si>
-    <t>1756434183-56</t>
-  </si>
-  <si>
-    <t>1756434183-57</t>
-  </si>
-  <si>
-    <t>1756434183-58</t>
-  </si>
-  <si>
-    <t>1756434183-59</t>
-  </si>
-  <si>
-    <t>1756434183-60</t>
+    <t>1756442148-9</t>
+  </si>
+  <si>
+    <t>1756442148-10</t>
+  </si>
+  <si>
+    <t>1756442148-11</t>
+  </si>
+  <si>
+    <t>1756442148-12</t>
+  </si>
+  <si>
+    <t>1756442148-13</t>
+  </si>
+  <si>
+    <t>1756442148-14</t>
+  </si>
+  <si>
+    <t>1756442148-15</t>
+  </si>
+  <si>
+    <t>1756442148-16</t>
+  </si>
+  <si>
+    <t>1756442148-17</t>
+  </si>
+  <si>
+    <t>1756442148-18</t>
+  </si>
+  <si>
+    <t>1756442148-19</t>
+  </si>
+  <si>
+    <t>1756442148-20</t>
+  </si>
+  <si>
+    <t>1756442148-21</t>
+  </si>
+  <si>
+    <t>1756442148-22</t>
+  </si>
+  <si>
+    <t>1756442148-23</t>
+  </si>
+  <si>
+    <t>1756442148-24</t>
+  </si>
+  <si>
+    <t>1756442148-25</t>
+  </si>
+  <si>
+    <t>1756442148-26</t>
+  </si>
+  <si>
+    <t>1756442148-27</t>
+  </si>
+  <si>
+    <t>1756442148-28</t>
+  </si>
+  <si>
+    <t>1756442148-29</t>
+  </si>
+  <si>
+    <t>1756442148-30</t>
+  </si>
+  <si>
+    <t>1756442148-31</t>
+  </si>
+  <si>
+    <t>1756442148-32</t>
+  </si>
+  <si>
+    <t>1756442148-33</t>
+  </si>
+  <si>
+    <t>1756442148-34</t>
+  </si>
+  <si>
+    <t>1756442148-35</t>
+  </si>
+  <si>
+    <t>1756442148-36</t>
+  </si>
+  <si>
+    <t>1756442148-37</t>
+  </si>
+  <si>
+    <t>1756442148-38</t>
+  </si>
+  <si>
+    <t>1756442148-39</t>
+  </si>
+  <si>
+    <t>1756442148-40</t>
+  </si>
+  <si>
+    <t>1756442148-41</t>
+  </si>
+  <si>
+    <t>1756442148-42</t>
+  </si>
+  <si>
+    <t>1756442148-43</t>
+  </si>
+  <si>
+    <t>1756442148-44</t>
+  </si>
+  <si>
+    <t>1756442148-45</t>
+  </si>
+  <si>
+    <t>1756442148-46</t>
+  </si>
+  <si>
+    <t>1756442148-47</t>
+  </si>
+  <si>
+    <t>1756442148-48</t>
+  </si>
+  <si>
+    <t>1756442148-49</t>
+  </si>
+  <si>
+    <t>1756442148-50</t>
+  </si>
+  <si>
+    <t>1756442148-51</t>
+  </si>
+  <si>
+    <t>1756442148-52</t>
+  </si>
+  <si>
+    <t>1756442148-53</t>
+  </si>
+  <si>
+    <t>1756442148-54</t>
+  </si>
+  <si>
+    <t>1756442148-55</t>
+  </si>
+  <si>
+    <t>1756442148-56</t>
+  </si>
+  <si>
+    <t>1756442148-57</t>
+  </si>
+  <si>
+    <t>1756442148-58</t>
+  </si>
+  <si>
+    <t>1756442148-59</t>
+  </si>
+  <si>
+    <t>1756442148-60</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,160 +37,160 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1756442148-9</t>
-  </si>
-  <si>
-    <t>1756442148-10</t>
-  </si>
-  <si>
-    <t>1756442148-11</t>
-  </si>
-  <si>
-    <t>1756442148-12</t>
-  </si>
-  <si>
-    <t>1756442148-13</t>
-  </si>
-  <si>
-    <t>1756442148-14</t>
-  </si>
-  <si>
-    <t>1756442148-15</t>
-  </si>
-  <si>
-    <t>1756442148-16</t>
-  </si>
-  <si>
-    <t>1756442148-17</t>
-  </si>
-  <si>
-    <t>1756442148-18</t>
-  </si>
-  <si>
-    <t>1756442148-19</t>
-  </si>
-  <si>
-    <t>1756442148-20</t>
-  </si>
-  <si>
-    <t>1756442148-21</t>
-  </si>
-  <si>
-    <t>1756442148-22</t>
-  </si>
-  <si>
-    <t>1756442148-23</t>
-  </si>
-  <si>
-    <t>1756442148-24</t>
-  </si>
-  <si>
-    <t>1756442148-25</t>
-  </si>
-  <si>
-    <t>1756442148-26</t>
-  </si>
-  <si>
-    <t>1756442148-27</t>
-  </si>
-  <si>
-    <t>1756442148-28</t>
-  </si>
-  <si>
-    <t>1756442148-29</t>
-  </si>
-  <si>
-    <t>1756442148-30</t>
-  </si>
-  <si>
-    <t>1756442148-31</t>
-  </si>
-  <si>
-    <t>1756442148-32</t>
-  </si>
-  <si>
-    <t>1756442148-33</t>
-  </si>
-  <si>
-    <t>1756442148-34</t>
-  </si>
-  <si>
-    <t>1756442148-35</t>
-  </si>
-  <si>
-    <t>1756442148-36</t>
-  </si>
-  <si>
-    <t>1756442148-37</t>
-  </si>
-  <si>
-    <t>1756442148-38</t>
-  </si>
-  <si>
-    <t>1756442148-39</t>
-  </si>
-  <si>
-    <t>1756442148-40</t>
-  </si>
-  <si>
-    <t>1756442148-41</t>
-  </si>
-  <si>
-    <t>1756442148-42</t>
-  </si>
-  <si>
-    <t>1756442148-43</t>
-  </si>
-  <si>
-    <t>1756442148-44</t>
-  </si>
-  <si>
-    <t>1756442148-45</t>
-  </si>
-  <si>
-    <t>1756442148-46</t>
-  </si>
-  <si>
-    <t>1756442148-47</t>
-  </si>
-  <si>
-    <t>1756442148-48</t>
-  </si>
-  <si>
-    <t>1756442148-49</t>
-  </si>
-  <si>
-    <t>1756442148-50</t>
-  </si>
-  <si>
-    <t>1756442148-51</t>
-  </si>
-  <si>
-    <t>1756442148-52</t>
-  </si>
-  <si>
-    <t>1756442148-53</t>
-  </si>
-  <si>
-    <t>1756442148-54</t>
-  </si>
-  <si>
-    <t>1756442148-55</t>
-  </si>
-  <si>
-    <t>1756442148-56</t>
-  </si>
-  <si>
-    <t>1756442148-57</t>
-  </si>
-  <si>
-    <t>1756442148-58</t>
-  </si>
-  <si>
-    <t>1756442148-59</t>
-  </si>
-  <si>
-    <t>1756442148-60</t>
+    <t>1756799107-9</t>
+  </si>
+  <si>
+    <t>1756799107-10</t>
+  </si>
+  <si>
+    <t>1756799107-11</t>
+  </si>
+  <si>
+    <t>1756799107-12</t>
+  </si>
+  <si>
+    <t>1756799107-13</t>
+  </si>
+  <si>
+    <t>1756799107-14</t>
+  </si>
+  <si>
+    <t>1756799107-15</t>
+  </si>
+  <si>
+    <t>1756799107-16</t>
+  </si>
+  <si>
+    <t>1756799107-17</t>
+  </si>
+  <si>
+    <t>1756799107-18</t>
+  </si>
+  <si>
+    <t>1756799107-19</t>
+  </si>
+  <si>
+    <t>1756799107-20</t>
+  </si>
+  <si>
+    <t>1756799107-21</t>
+  </si>
+  <si>
+    <t>1756799107-22</t>
+  </si>
+  <si>
+    <t>1756799107-23</t>
+  </si>
+  <si>
+    <t>1756799107-24</t>
+  </si>
+  <si>
+    <t>1756799107-25</t>
+  </si>
+  <si>
+    <t>1756799107-26</t>
+  </si>
+  <si>
+    <t>1756799107-27</t>
+  </si>
+  <si>
+    <t>1756799107-28</t>
+  </si>
+  <si>
+    <t>1756799107-29</t>
+  </si>
+  <si>
+    <t>1756799107-30</t>
+  </si>
+  <si>
+    <t>1756799107-31</t>
+  </si>
+  <si>
+    <t>1756799107-32</t>
+  </si>
+  <si>
+    <t>1756799107-33</t>
+  </si>
+  <si>
+    <t>1756799107-34</t>
+  </si>
+  <si>
+    <t>1756799107-35</t>
+  </si>
+  <si>
+    <t>1756799107-36</t>
+  </si>
+  <si>
+    <t>1756799107-37</t>
+  </si>
+  <si>
+    <t>1756799107-38</t>
+  </si>
+  <si>
+    <t>1756799107-39</t>
+  </si>
+  <si>
+    <t>1756799107-40</t>
+  </si>
+  <si>
+    <t>1756799107-41</t>
+  </si>
+  <si>
+    <t>1756799107-42</t>
+  </si>
+  <si>
+    <t>1756799107-43</t>
+  </si>
+  <si>
+    <t>1756799107-44</t>
+  </si>
+  <si>
+    <t>1756799107-45</t>
+  </si>
+  <si>
+    <t>1756799107-46</t>
+  </si>
+  <si>
+    <t>1756799107-47</t>
+  </si>
+  <si>
+    <t>1756799107-48</t>
+  </si>
+  <si>
+    <t>1756799107-49</t>
+  </si>
+  <si>
+    <t>1756799107-50</t>
+  </si>
+  <si>
+    <t>1756799107-51</t>
+  </si>
+  <si>
+    <t>1756799107-52</t>
+  </si>
+  <si>
+    <t>1756799107-53</t>
+  </si>
+  <si>
+    <t>1756799107-54</t>
+  </si>
+  <si>
+    <t>1756799107-55</t>
+  </si>
+  <si>
+    <t>1756799107-56</t>
+  </si>
+  <si>
+    <t>1756799107-57</t>
+  </si>
+  <si>
+    <t>1756799107-58</t>
+  </si>
+  <si>
+    <t>1756799107-59</t>
+  </si>
+  <si>
+    <t>1756799107-60</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>500</v>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -37,163 +37,181 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1756799107-9</t>
-  </si>
-  <si>
-    <t>1756799107-10</t>
-  </si>
-  <si>
-    <t>1756799107-11</t>
-  </si>
-  <si>
-    <t>1756799107-12</t>
-  </si>
-  <si>
-    <t>1756799107-13</t>
-  </si>
-  <si>
-    <t>1756799107-14</t>
-  </si>
-  <si>
-    <t>1756799107-15</t>
-  </si>
-  <si>
-    <t>1756799107-16</t>
-  </si>
-  <si>
-    <t>1756799107-17</t>
-  </si>
-  <si>
-    <t>1756799107-18</t>
-  </si>
-  <si>
-    <t>1756799107-19</t>
-  </si>
-  <si>
-    <t>1756799107-20</t>
-  </si>
-  <si>
-    <t>1756799107-21</t>
-  </si>
-  <si>
-    <t>1756799107-22</t>
-  </si>
-  <si>
-    <t>1756799107-23</t>
-  </si>
-  <si>
-    <t>1756799107-24</t>
-  </si>
-  <si>
-    <t>1756799107-25</t>
-  </si>
-  <si>
-    <t>1756799107-26</t>
-  </si>
-  <si>
-    <t>1756799107-27</t>
-  </si>
-  <si>
-    <t>1756799107-28</t>
-  </si>
-  <si>
-    <t>1756799107-29</t>
-  </si>
-  <si>
-    <t>1756799107-30</t>
-  </si>
-  <si>
-    <t>1756799107-31</t>
-  </si>
-  <si>
-    <t>1756799107-32</t>
-  </si>
-  <si>
-    <t>1756799107-33</t>
-  </si>
-  <si>
-    <t>1756799107-34</t>
-  </si>
-  <si>
-    <t>1756799107-35</t>
-  </si>
-  <si>
-    <t>1756799107-36</t>
-  </si>
-  <si>
-    <t>1756799107-37</t>
-  </si>
-  <si>
-    <t>1756799107-38</t>
-  </si>
-  <si>
-    <t>1756799107-39</t>
-  </si>
-  <si>
-    <t>1756799107-40</t>
-  </si>
-  <si>
-    <t>1756799107-41</t>
-  </si>
-  <si>
-    <t>1756799107-42</t>
-  </si>
-  <si>
-    <t>1756799107-43</t>
-  </si>
-  <si>
-    <t>1756799107-44</t>
-  </si>
-  <si>
-    <t>1756799107-45</t>
-  </si>
-  <si>
-    <t>1756799107-46</t>
-  </si>
-  <si>
-    <t>1756799107-47</t>
-  </si>
-  <si>
-    <t>1756799107-48</t>
-  </si>
-  <si>
-    <t>1756799107-49</t>
-  </si>
-  <si>
-    <t>1756799107-50</t>
-  </si>
-  <si>
-    <t>1756799107-51</t>
-  </si>
-  <si>
-    <t>1756799107-52</t>
-  </si>
-  <si>
-    <t>1756799107-53</t>
-  </si>
-  <si>
-    <t>1756799107-54</t>
-  </si>
-  <si>
-    <t>1756799107-55</t>
-  </si>
-  <si>
-    <t>1756799107-56</t>
-  </si>
-  <si>
-    <t>1756799107-57</t>
-  </si>
-  <si>
-    <t>1756799107-58</t>
-  </si>
-  <si>
-    <t>1756799107-59</t>
-  </si>
-  <si>
-    <t>1756799107-60</t>
+    <t>1757033057-9</t>
+  </si>
+  <si>
+    <t>1757033057-10</t>
+  </si>
+  <si>
+    <t>1757033057-11</t>
+  </si>
+  <si>
+    <t>1757033057-12</t>
+  </si>
+  <si>
+    <t>1757033057-13</t>
+  </si>
+  <si>
+    <t>1757033057-14</t>
+  </si>
+  <si>
+    <t>1757033057-15</t>
+  </si>
+  <si>
+    <t>1757033057-16</t>
+  </si>
+  <si>
+    <t>1757033057-17</t>
+  </si>
+  <si>
+    <t>1757033057-18</t>
+  </si>
+  <si>
+    <t>1757033057-19</t>
+  </si>
+  <si>
+    <t>1757033057-20</t>
+  </si>
+  <si>
+    <t>1757033057-21</t>
+  </si>
+  <si>
+    <t>1757033057-22</t>
+  </si>
+  <si>
+    <t>1757033057-23</t>
+  </si>
+  <si>
+    <t>1757033057-24</t>
+  </si>
+  <si>
+    <t>1757033057-25</t>
+  </si>
+  <si>
+    <t>1757033057-26</t>
+  </si>
+  <si>
+    <t>1757033057-27</t>
+  </si>
+  <si>
+    <t>1757033057-28</t>
+  </si>
+  <si>
+    <t>1757033057-29</t>
+  </si>
+  <si>
+    <t>1757033057-30</t>
+  </si>
+  <si>
+    <t>1757033057-31</t>
+  </si>
+  <si>
+    <t>1757033057-32</t>
+  </si>
+  <si>
+    <t>1757033057-33</t>
+  </si>
+  <si>
+    <t>1757033057-34</t>
+  </si>
+  <si>
+    <t>1757033057-35</t>
+  </si>
+  <si>
+    <t>1757033057-36</t>
+  </si>
+  <si>
+    <t>1757033057-37</t>
+  </si>
+  <si>
+    <t>1757033057-38</t>
+  </si>
+  <si>
+    <t>1757033057-39</t>
+  </si>
+  <si>
+    <t>1757033057-40</t>
+  </si>
+  <si>
+    <t>1757033057-41</t>
+  </si>
+  <si>
+    <t>1757033057-42</t>
+  </si>
+  <si>
+    <t>1757033057-43</t>
+  </si>
+  <si>
+    <t>1757033057-44</t>
+  </si>
+  <si>
+    <t>1757033057-45</t>
+  </si>
+  <si>
+    <t>1757033057-46</t>
+  </si>
+  <si>
+    <t>1757033057-47</t>
+  </si>
+  <si>
+    <t>1757033057-48</t>
+  </si>
+  <si>
+    <t>1757033057-49</t>
+  </si>
+  <si>
+    <t>1757033057-50</t>
+  </si>
+  <si>
+    <t>1757033057-51</t>
+  </si>
+  <si>
+    <t>1757033057-52</t>
+  </si>
+  <si>
+    <t>1757033057-53</t>
+  </si>
+  <si>
+    <t>1757033057-54</t>
+  </si>
+  <si>
+    <t>1757033057-55</t>
+  </si>
+  <si>
+    <t>1757033057-56</t>
+  </si>
+  <si>
+    <t>1757033057-57</t>
+  </si>
+  <si>
+    <t>1757033057-58</t>
+  </si>
+  <si>
+    <t>1757033057-59</t>
+  </si>
+  <si>
+    <t>1757033057-60</t>
+  </si>
+  <si>
+    <t>1757033057-61</t>
+  </si>
+  <si>
+    <t>1757033057-62</t>
+  </si>
+  <si>
+    <t>1757033057-63</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
+  </si>
+  <si>
+    <t>Life or Death</t>
+  </si>
+  <si>
+    <t>Sector 3 by 9</t>
+  </si>
+  <si>
+    <t>Toxic Base64</t>
   </si>
   <si>
     <t>Emoji</t>
@@ -720,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -766,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -777,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -789,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>500</v>
@@ -800,10 +818,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -812,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -823,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -835,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -846,10 +864,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -858,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -869,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -881,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -892,10 +910,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -904,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -915,10 +933,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -927,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -938,10 +956,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -950,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -961,10 +979,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -973,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -984,10 +1002,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1007,10 +1025,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1019,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1030,10 +1048,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1042,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1053,10 +1071,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1065,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1076,10 +1094,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1088,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1099,10 +1117,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1111,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1122,10 +1140,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1134,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1145,10 +1163,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1157,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1168,10 +1186,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1180,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1191,10 +1209,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1203,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1214,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1226,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1237,10 +1255,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1249,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1260,10 +1278,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1272,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1283,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1295,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1306,10 +1324,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1318,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1329,10 +1347,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1341,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1352,10 +1370,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1364,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>50</v>
@@ -1375,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1387,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1398,10 +1416,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1410,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1421,10 +1439,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1433,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1444,10 +1462,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1456,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1467,10 +1485,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1479,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1490,10 +1508,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1502,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1513,10 +1531,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1525,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1536,10 +1554,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1548,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1559,10 +1577,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1571,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>50</v>
@@ -1582,10 +1600,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1594,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1605,10 +1623,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1617,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1628,10 +1646,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1640,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G40">
         <v>50</v>
@@ -1651,10 +1669,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1674,10 +1692,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1686,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1697,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1720,10 +1738,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1732,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1743,10 +1761,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1755,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1766,10 +1784,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1778,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G46">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1789,10 +1807,10 @@
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1801,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1812,10 +1830,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1824,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1835,10 +1853,10 @@
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1847,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1858,10 +1876,10 @@
         <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1870,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1881,10 +1899,10 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1893,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -1904,10 +1922,10 @@
         <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1916,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1927,21 +1945,90 @@
         <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="C53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>33</v>
-      </c>
-      <c r="G53">
+      <c r="B54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>34</v>
+      </c>
+      <c r="G56">
         <v>50</v>
       </c>
     </row>
@@ -1999,6 +2086,9 @@
     <hyperlink ref="B51" r:id="rId50"/>
     <hyperlink ref="B52" r:id="rId51"/>
     <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/challenges_with_points.xlsx
+++ b/challenges_with_points.xlsx
@@ -37,169 +37,169 @@
     <t>Points</t>
   </si>
   <si>
-    <t>1757033057-9</t>
-  </si>
-  <si>
-    <t>1757033057-10</t>
-  </si>
-  <si>
-    <t>1757033057-11</t>
-  </si>
-  <si>
-    <t>1757033057-12</t>
-  </si>
-  <si>
-    <t>1757033057-13</t>
-  </si>
-  <si>
-    <t>1757033057-14</t>
-  </si>
-  <si>
-    <t>1757033057-15</t>
-  </si>
-  <si>
-    <t>1757033057-16</t>
-  </si>
-  <si>
-    <t>1757033057-17</t>
-  </si>
-  <si>
-    <t>1757033057-18</t>
-  </si>
-  <si>
-    <t>1757033057-19</t>
-  </si>
-  <si>
-    <t>1757033057-20</t>
-  </si>
-  <si>
-    <t>1757033057-21</t>
-  </si>
-  <si>
-    <t>1757033057-22</t>
-  </si>
-  <si>
-    <t>1757033057-23</t>
-  </si>
-  <si>
-    <t>1757033057-24</t>
-  </si>
-  <si>
-    <t>1757033057-25</t>
-  </si>
-  <si>
-    <t>1757033057-26</t>
-  </si>
-  <si>
-    <t>1757033057-27</t>
-  </si>
-  <si>
-    <t>1757033057-28</t>
-  </si>
-  <si>
-    <t>1757033057-29</t>
-  </si>
-  <si>
-    <t>1757033057-30</t>
-  </si>
-  <si>
-    <t>1757033057-31</t>
-  </si>
-  <si>
-    <t>1757033057-32</t>
-  </si>
-  <si>
-    <t>1757033057-33</t>
-  </si>
-  <si>
-    <t>1757033057-34</t>
-  </si>
-  <si>
-    <t>1757033057-35</t>
-  </si>
-  <si>
-    <t>1757033057-36</t>
-  </si>
-  <si>
-    <t>1757033057-37</t>
-  </si>
-  <si>
-    <t>1757033057-38</t>
-  </si>
-  <si>
-    <t>1757033057-39</t>
-  </si>
-  <si>
-    <t>1757033057-40</t>
-  </si>
-  <si>
-    <t>1757033057-41</t>
-  </si>
-  <si>
-    <t>1757033057-42</t>
-  </si>
-  <si>
-    <t>1757033057-43</t>
-  </si>
-  <si>
-    <t>1757033057-44</t>
-  </si>
-  <si>
-    <t>1757033057-45</t>
-  </si>
-  <si>
-    <t>1757033057-46</t>
-  </si>
-  <si>
-    <t>1757033057-47</t>
-  </si>
-  <si>
-    <t>1757033057-48</t>
-  </si>
-  <si>
-    <t>1757033057-49</t>
-  </si>
-  <si>
-    <t>1757033057-50</t>
-  </si>
-  <si>
-    <t>1757033057-51</t>
-  </si>
-  <si>
-    <t>1757033057-52</t>
-  </si>
-  <si>
-    <t>1757033057-53</t>
-  </si>
-  <si>
-    <t>1757033057-54</t>
-  </si>
-  <si>
-    <t>1757033057-55</t>
-  </si>
-  <si>
-    <t>1757033057-56</t>
-  </si>
-  <si>
-    <t>1757033057-57</t>
-  </si>
-  <si>
-    <t>1757033057-58</t>
-  </si>
-  <si>
-    <t>1757033057-59</t>
-  </si>
-  <si>
-    <t>1757033057-60</t>
-  </si>
-  <si>
-    <t>1757033057-61</t>
-  </si>
-  <si>
-    <t>1757033057-62</t>
-  </si>
-  <si>
-    <t>1757033057-63</t>
+    <t>1762402177-9</t>
+  </si>
+  <si>
+    <t>1762402177-10</t>
+  </si>
+  <si>
+    <t>1762402177-11</t>
+  </si>
+  <si>
+    <t>1762402177-12</t>
+  </si>
+  <si>
+    <t>1762402177-13</t>
+  </si>
+  <si>
+    <t>1762402177-14</t>
+  </si>
+  <si>
+    <t>1762402177-15</t>
+  </si>
+  <si>
+    <t>1762402177-16</t>
+  </si>
+  <si>
+    <t>1762402177-17</t>
+  </si>
+  <si>
+    <t>1762402177-18</t>
+  </si>
+  <si>
+    <t>1762402177-19</t>
+  </si>
+  <si>
+    <t>1762402177-20</t>
+  </si>
+  <si>
+    <t>1762402177-21</t>
+  </si>
+  <si>
+    <t>1762402177-22</t>
+  </si>
+  <si>
+    <t>1762402177-23</t>
+  </si>
+  <si>
+    <t>1762402177-24</t>
+  </si>
+  <si>
+    <t>1762402177-25</t>
+  </si>
+  <si>
+    <t>1762402177-26</t>
+  </si>
+  <si>
+    <t>1762402177-27</t>
+  </si>
+  <si>
+    <t>1762402177-28</t>
+  </si>
+  <si>
+    <t>1762402177-29</t>
+  </si>
+  <si>
+    <t>1762402177-30</t>
+  </si>
+  <si>
+    <t>1762402177-31</t>
+  </si>
+  <si>
+    <t>1762402177-32</t>
+  </si>
+  <si>
+    <t>1762402177-33</t>
+  </si>
+  <si>
+    <t>1762402177-34</t>
+  </si>
+  <si>
+    <t>1762402177-35</t>
+  </si>
+  <si>
+    <t>1762402177-36</t>
+  </si>
+  <si>
+    <t>1762402177-37</t>
+  </si>
+  <si>
+    <t>1762402177-38</t>
+  </si>
+  <si>
+    <t>1762402177-39</t>
+  </si>
+  <si>
+    <t>1762402177-40</t>
+  </si>
+  <si>
+    <t>1762402177-41</t>
+  </si>
+  <si>
+    <t>1762402177-42</t>
+  </si>
+  <si>
+    <t>1762402177-43</t>
+  </si>
+  <si>
+    <t>1762402177-44</t>
+  </si>
+  <si>
+    <t>1762402177-45</t>
+  </si>
+  <si>
+    <t>1762402177-46</t>
+  </si>
+  <si>
+    <t>1762402177-47</t>
+  </si>
+  <si>
+    <t>1762402177-48</t>
+  </si>
+  <si>
+    <t>1762402177-49</t>
+  </si>
+  <si>
+    <t>1762402177-50</t>
+  </si>
+  <si>
+    <t>1762402177-51</t>
+  </si>
+  <si>
+    <t>1762402177-52</t>
+  </si>
+  <si>
+    <t>1762402177-53</t>
+  </si>
+  <si>
+    <t>1762402177-54</t>
+  </si>
+  <si>
+    <t>1762402177-55</t>
+  </si>
+  <si>
+    <t>1762402177-56</t>
+  </si>
+  <si>
+    <t>1762402177-57</t>
+  </si>
+  <si>
+    <t>1762402177-58</t>
+  </si>
+  <si>
+    <t>1762402177-59</t>
+  </si>
+  <si>
+    <t>1762402177-60</t>
+  </si>
+  <si>
+    <t>1762402177-61</t>
+  </si>
+  <si>
+    <t>1762402177-62</t>
+  </si>
+  <si>
+    <t>1762402177-63</t>
   </si>
   <si>
     <t>https://conan.cote.ws/admin/db/challenge/</t>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:7">
